--- a/Team_Names_Abbrs.xlsx
+++ b/Team_Names_Abbrs.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ddb8727edf2838dd/Documents/Development/NCAA_Markov/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="66" documentId="11_11B900F2B4330925912C4CA1452E3ED5787AD852" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F8BD520-4563-4F4F-96CA-B42362E81B6F}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="1562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="1572">
   <si>
     <t>id</t>
   </si>
@@ -3499,9 +3505,6 @@
     <t>LMU</t>
   </si>
   <si>
-    <t>CSUF</t>
-  </si>
-  <si>
     <t>CORNELL</t>
   </si>
   <si>
@@ -3553,9 +3556,6 @@
     <t>NKU</t>
   </si>
   <si>
-    <t>Jay</t>
-  </si>
-  <si>
     <t>LR</t>
   </si>
   <si>
@@ -3631,9 +3631,6 @@
     <t>GMU</t>
   </si>
   <si>
-    <t>CHAR</t>
-  </si>
-  <si>
     <t>UCSB</t>
   </si>
   <si>
@@ -3643,9 +3640,6 @@
     <t>SDSU</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
     <t>MVSU</t>
   </si>
   <si>
@@ -3655,9 +3649,6 @@
     <t>SJU</t>
   </si>
   <si>
-    <t>Taje</t>
-  </si>
-  <si>
     <t>ChaSou</t>
   </si>
   <si>
@@ -3676,9 +3667,6 @@
     <t>SHSU</t>
   </si>
   <si>
-    <t>Po</t>
-  </si>
-  <si>
     <t>NCCU</t>
   </si>
   <si>
@@ -3697,9 +3685,6 @@
     <t>SacSt</t>
   </si>
   <si>
-    <t>Ja</t>
-  </si>
-  <si>
     <t>TSU</t>
   </si>
   <si>
@@ -3754,9 +3739,6 @@
     <t>UCA</t>
   </si>
   <si>
-    <t>506558</t>
-  </si>
-  <si>
     <t>536</t>
   </si>
   <si>
@@ -3769,15 +3751,6 @@
     <t>DSU</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>NDSU</t>
   </si>
   <si>
@@ -3811,9 +3784,6 @@
     <t>GB</t>
   </si>
   <si>
-    <t>SCSt</t>
-  </si>
-  <si>
     <t>SD</t>
   </si>
   <si>
@@ -3910,9 +3880,6 @@
     <t>Rad</t>
   </si>
   <si>
-    <t>Morgan</t>
-  </si>
-  <si>
     <t>LATech</t>
   </si>
   <si>
@@ -4003,9 +3970,6 @@
     <t>Merri</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>CC</t>
   </si>
   <si>
@@ -4072,9 +4036,6 @@
     <t>UVM</t>
   </si>
   <si>
-    <t>J</t>
-  </si>
-  <si>
     <t>UTA</t>
   </si>
   <si>
@@ -4336,9 +4297,6 @@
     <t>Bellev</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>30236</t>
   </si>
   <si>
@@ -4420,18 +4378,9 @@
     <t>506568</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>Life</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>506547</t>
   </si>
   <si>
@@ -4531,9 +4480,6 @@
     <t>Hart</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>Crown</t>
   </si>
   <si>
@@ -4546,9 +4492,6 @@
     <t>LW</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>TLU</t>
   </si>
   <si>
@@ -4609,9 +4552,6 @@
     <t>Park</t>
   </si>
   <si>
-    <t>NK</t>
-  </si>
-  <si>
     <t>GBORO</t>
   </si>
   <si>
@@ -4700,13 +4640,109 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>SCU</t>
+  </si>
+  <si>
+    <t>BCU</t>
+  </si>
+  <si>
+    <t>APSU</t>
+  </si>
+  <si>
+    <t>SF-PA</t>
+  </si>
+  <si>
+    <t>Pitt-G</t>
+  </si>
+  <si>
+    <t>TA&amp;MCC</t>
+  </si>
+  <si>
+    <t>NCA&amp;T</t>
+  </si>
+  <si>
+    <t>NVU-J</t>
+  </si>
+  <si>
+    <t>UH</t>
+  </si>
+  <si>
+    <t>Witten</t>
+  </si>
+  <si>
+    <t>Coppin</t>
+  </si>
+  <si>
+    <t>TA&amp;M</t>
+  </si>
+  <si>
+    <t>H-L</t>
+  </si>
+  <si>
+    <t>SLP</t>
+  </si>
+  <si>
+    <t>FDU-F</t>
+  </si>
+  <si>
+    <t>H-S</t>
+  </si>
+  <si>
+    <t>L&amp;C</t>
+  </si>
+  <si>
+    <t>NVU-L</t>
+  </si>
+  <si>
+    <t>V-L</t>
+  </si>
+  <si>
+    <t>WOU</t>
+  </si>
+  <si>
+    <t>Mia-H</t>
+  </si>
+  <si>
+    <t>CSU-P</t>
+  </si>
+  <si>
+    <t>LETU</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>PS-NK</t>
+  </si>
+  <si>
+    <t>CCU</t>
+  </si>
+  <si>
+    <t>JC</t>
+  </si>
+  <si>
+    <t>EastNM</t>
+  </si>
+  <si>
+    <t>BEARS</t>
+  </si>
+  <si>
+    <t>CLT</t>
+  </si>
+  <si>
+    <t>CSF</t>
+  </si>
+  <si>
+    <t>SCSTATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4769,13 +4805,25 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4813,7 +4861,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4847,6 +4895,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4881,9 +4930,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5056,14 +5106,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5077,7 +5132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -5091,7 +5146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5105,7 +5160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -5119,7 +5174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -5133,7 +5188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -5147,7 +5202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -5161,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -5175,7 +5230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -5189,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -5197,13 +5252,13 @@
         <v>587</v>
       </c>
       <c r="C10" t="s">
-        <v>1161</v>
+        <v>1570</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -5211,13 +5266,13 @@
         <v>588</v>
       </c>
       <c r="C11" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -5225,13 +5280,13 @@
         <v>589</v>
       </c>
       <c r="C12" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -5245,7 +5300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -5253,13 +5308,13 @@
         <v>591</v>
       </c>
       <c r="C14" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -5267,13 +5322,13 @@
         <v>592</v>
       </c>
       <c r="C15" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -5281,13 +5336,13 @@
         <v>593</v>
       </c>
       <c r="C16" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -5295,13 +5350,13 @@
         <v>594</v>
       </c>
       <c r="C17" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -5309,13 +5364,13 @@
         <v>595</v>
       </c>
       <c r="C18" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -5329,7 +5384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -5337,13 +5392,13 @@
         <v>597</v>
       </c>
       <c r="C20" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -5351,13 +5406,13 @@
         <v>598</v>
       </c>
       <c r="C21" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -5365,13 +5420,13 @@
         <v>599</v>
       </c>
       <c r="C22" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -5379,13 +5434,13 @@
         <v>600</v>
       </c>
       <c r="C23" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -5399,7 +5454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -5407,13 +5462,13 @@
         <v>602</v>
       </c>
       <c r="C25" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -5421,13 +5476,13 @@
         <v>603</v>
       </c>
       <c r="C26" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -5435,13 +5490,13 @@
         <v>604</v>
       </c>
       <c r="C27" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -5449,13 +5504,13 @@
         <v>605</v>
       </c>
       <c r="C28" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -5463,13 +5518,13 @@
         <v>606</v>
       </c>
       <c r="C29" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -5477,13 +5532,13 @@
         <v>607</v>
       </c>
       <c r="C30" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -5491,13 +5546,13 @@
         <v>608</v>
       </c>
       <c r="C31" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -5505,13 +5560,13 @@
         <v>609</v>
       </c>
       <c r="C32" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -5525,7 +5580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -5533,13 +5588,13 @@
         <v>611</v>
       </c>
       <c r="C34" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -5547,13 +5602,13 @@
         <v>612</v>
       </c>
       <c r="C35" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -5561,13 +5616,13 @@
         <v>613</v>
       </c>
       <c r="C36" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -5575,13 +5630,13 @@
         <v>614</v>
       </c>
       <c r="C37" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -5589,13 +5644,13 @@
         <v>615</v>
       </c>
       <c r="C38" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -5603,13 +5658,13 @@
         <v>616</v>
       </c>
       <c r="C39" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -5617,13 +5672,13 @@
         <v>617</v>
       </c>
       <c r="C40" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -5631,13 +5686,13 @@
         <v>618</v>
       </c>
       <c r="C41" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -5645,13 +5700,13 @@
         <v>619</v>
       </c>
       <c r="C42" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -5659,13 +5714,13 @@
         <v>620</v>
       </c>
       <c r="C43" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -5673,13 +5728,13 @@
         <v>621</v>
       </c>
       <c r="C44" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -5693,7 +5748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -5701,13 +5756,13 @@
         <v>623</v>
       </c>
       <c r="C46" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -5715,13 +5770,13 @@
         <v>624</v>
       </c>
       <c r="C47" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -5729,13 +5784,13 @@
         <v>625</v>
       </c>
       <c r="C48" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -5743,13 +5798,13 @@
         <v>626</v>
       </c>
       <c r="C49" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -5757,13 +5812,13 @@
         <v>627</v>
       </c>
       <c r="C50" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -5771,13 +5826,13 @@
         <v>628</v>
       </c>
       <c r="C51" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -5785,13 +5840,13 @@
         <v>629</v>
       </c>
       <c r="C52" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -5799,13 +5854,13 @@
         <v>630</v>
       </c>
       <c r="C53" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -5819,7 +5874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -5827,13 +5882,13 @@
         <v>632</v>
       </c>
       <c r="C55" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -5841,13 +5896,13 @@
         <v>633</v>
       </c>
       <c r="C56" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -5855,13 +5910,13 @@
         <v>634</v>
       </c>
       <c r="C57" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -5869,13 +5924,13 @@
         <v>635</v>
       </c>
       <c r="C58" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -5883,13 +5938,13 @@
         <v>636</v>
       </c>
       <c r="C59" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -5897,13 +5952,13 @@
         <v>637</v>
       </c>
       <c r="C60" t="s">
-        <v>1205</v>
+        <v>1569</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -5911,13 +5966,13 @@
         <v>638</v>
       </c>
       <c r="C61" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -5925,13 +5980,13 @@
         <v>639</v>
       </c>
       <c r="C62" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -5939,13 +5994,13 @@
         <v>640</v>
       </c>
       <c r="C63" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -5959,7 +6014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -5967,13 +6022,13 @@
         <v>642</v>
       </c>
       <c r="C65" t="s">
-        <v>1209</v>
+        <v>1540</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -5981,13 +6036,13 @@
         <v>643</v>
       </c>
       <c r="C66" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -5995,13 +6050,13 @@
         <v>644</v>
       </c>
       <c r="C67" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -6009,13 +6064,13 @@
         <v>645</v>
       </c>
       <c r="C68" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -6023,13 +6078,13 @@
         <v>646</v>
       </c>
       <c r="C69" t="s">
-        <v>1213</v>
+        <v>1541</v>
       </c>
       <c r="D69" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -6037,13 +6092,13 @@
         <v>647</v>
       </c>
       <c r="C70" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -6051,13 +6106,13 @@
         <v>648</v>
       </c>
       <c r="C71" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -6071,7 +6126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -6085,7 +6140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -6093,13 +6148,13 @@
         <v>651</v>
       </c>
       <c r="C74" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -6107,13 +6162,13 @@
         <v>652</v>
       </c>
       <c r="C75" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="D75" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -6127,7 +6182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -6135,13 +6190,13 @@
         <v>654</v>
       </c>
       <c r="C77" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -6149,13 +6204,13 @@
         <v>655</v>
       </c>
       <c r="C78" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -6163,13 +6218,13 @@
         <v>656</v>
       </c>
       <c r="C79" t="s">
-        <v>1220</v>
+        <v>1421</v>
       </c>
       <c r="D79" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -6177,13 +6232,13 @@
         <v>657</v>
       </c>
       <c r="C80" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -6191,13 +6246,13 @@
         <v>658</v>
       </c>
       <c r="C81" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="D81" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -6205,13 +6260,13 @@
         <v>659</v>
       </c>
       <c r="C82" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -6225,7 +6280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -6233,13 +6288,13 @@
         <v>661</v>
       </c>
       <c r="C84" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -6247,13 +6302,13 @@
         <v>662</v>
       </c>
       <c r="C85" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="D85" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -6261,13 +6316,13 @@
         <v>663</v>
       </c>
       <c r="C86" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -6275,13 +6330,13 @@
         <v>664</v>
       </c>
       <c r="C87" t="s">
-        <v>1227</v>
+        <v>1542</v>
       </c>
       <c r="D87" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -6289,13 +6344,13 @@
         <v>665</v>
       </c>
       <c r="C88" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -6303,13 +6358,13 @@
         <v>666</v>
       </c>
       <c r="C89" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
       <c r="D89" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -6323,7 +6378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -6337,7 +6392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -6345,13 +6400,13 @@
         <v>669</v>
       </c>
       <c r="C92" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -6359,13 +6414,13 @@
         <v>670</v>
       </c>
       <c r="C93" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="D93" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -6379,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -6393,7 +6448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -6401,13 +6456,13 @@
         <v>673</v>
       </c>
       <c r="C96" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -6415,13 +6470,13 @@
         <v>674</v>
       </c>
       <c r="C97" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="D97" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -6429,13 +6484,13 @@
         <v>675</v>
       </c>
       <c r="C98" t="s">
-        <v>1234</v>
+        <v>1227</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -6449,7 +6504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -6457,13 +6512,13 @@
         <v>677</v>
       </c>
       <c r="C100" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
       <c r="D100" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -6471,13 +6526,13 @@
         <v>678</v>
       </c>
       <c r="C101" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="D101" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -6485,13 +6540,13 @@
         <v>679</v>
       </c>
       <c r="C102" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="D102" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -6499,13 +6554,13 @@
         <v>680</v>
       </c>
       <c r="C103" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="D103" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -6513,13 +6568,13 @@
         <v>681</v>
       </c>
       <c r="C104" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="D104" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -6527,13 +6582,13 @@
         <v>682</v>
       </c>
       <c r="C105" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="D105" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -6541,13 +6596,13 @@
         <v>683</v>
       </c>
       <c r="C106" t="s">
-        <v>1240</v>
+        <v>1233</v>
       </c>
       <c r="D106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -6555,13 +6610,13 @@
         <v>684</v>
       </c>
       <c r="C107" t="s">
-        <v>1241</v>
+        <v>1234</v>
       </c>
       <c r="D107" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -6569,13 +6624,13 @@
         <v>685</v>
       </c>
       <c r="C108" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>111</v>
       </c>
@@ -6583,13 +6638,13 @@
         <v>686</v>
       </c>
       <c r="C109" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="D109" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -6597,13 +6652,13 @@
         <v>687</v>
       </c>
       <c r="C110" t="s">
-        <v>1243</v>
+        <v>1236</v>
       </c>
       <c r="D110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -6611,13 +6666,13 @@
         <v>688</v>
       </c>
       <c r="C111" t="s">
-        <v>1244</v>
+        <v>1237</v>
       </c>
       <c r="D111" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -6625,13 +6680,13 @@
         <v>689</v>
       </c>
       <c r="C112" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="D112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -6639,13 +6694,13 @@
         <v>690</v>
       </c>
       <c r="C113" t="s">
-        <v>1246</v>
+        <v>690</v>
       </c>
       <c r="D113" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -6653,13 +6708,13 @@
         <v>691</v>
       </c>
       <c r="C114" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="D114" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>117</v>
       </c>
@@ -6667,13 +6722,13 @@
         <v>692</v>
       </c>
       <c r="C115" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="D115" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>118</v>
       </c>
@@ -6681,13 +6736,13 @@
         <v>693</v>
       </c>
       <c r="C116" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="D116" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>119</v>
       </c>
@@ -6701,7 +6756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -6709,13 +6764,13 @@
         <v>695</v>
       </c>
       <c r="C118" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="D118" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -6723,13 +6778,13 @@
         <v>696</v>
       </c>
       <c r="C119" t="s">
-        <v>1251</v>
+        <v>1331</v>
       </c>
       <c r="D119" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>122</v>
       </c>
@@ -6737,13 +6792,13 @@
         <v>697</v>
       </c>
       <c r="C120" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D120" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -6751,13 +6806,13 @@
         <v>698</v>
       </c>
       <c r="C121" t="s">
-        <v>1252</v>
+        <v>1543</v>
       </c>
       <c r="D121" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>124</v>
       </c>
@@ -6765,13 +6820,13 @@
         <v>699</v>
       </c>
       <c r="C122" t="s">
-        <v>1253</v>
+        <v>1544</v>
       </c>
       <c r="D122" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>125</v>
       </c>
@@ -6779,13 +6834,13 @@
         <v>700</v>
       </c>
       <c r="C123" t="s">
-        <v>1254</v>
+        <v>1243</v>
       </c>
       <c r="D123" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>126</v>
       </c>
@@ -6793,13 +6848,13 @@
         <v>701</v>
       </c>
       <c r="C124" t="s">
-        <v>1255</v>
+        <v>1244</v>
       </c>
       <c r="D124" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>127</v>
       </c>
@@ -6807,13 +6862,13 @@
         <v>702</v>
       </c>
       <c r="C125" t="s">
-        <v>1256</v>
+        <v>1245</v>
       </c>
       <c r="D125" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -6821,13 +6876,13 @@
         <v>703</v>
       </c>
       <c r="C126" t="s">
-        <v>1257</v>
+        <v>1246</v>
       </c>
       <c r="D126" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>129</v>
       </c>
@@ -6835,13 +6890,13 @@
         <v>704</v>
       </c>
       <c r="C127" t="s">
-        <v>1258</v>
+        <v>1247</v>
       </c>
       <c r="D127" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>130</v>
       </c>
@@ -6849,13 +6904,13 @@
         <v>705</v>
       </c>
       <c r="C128" t="s">
-        <v>1259</v>
+        <v>1248</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>131</v>
       </c>
@@ -6863,13 +6918,13 @@
         <v>706</v>
       </c>
       <c r="C129" t="s">
-        <v>1260</v>
+        <v>1249</v>
       </c>
       <c r="D129" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>132</v>
       </c>
@@ -6877,13 +6932,13 @@
         <v>707</v>
       </c>
       <c r="C130" t="s">
-        <v>1261</v>
+        <v>1250</v>
       </c>
       <c r="D130" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>133</v>
       </c>
@@ -6891,13 +6946,13 @@
         <v>708</v>
       </c>
       <c r="C131" t="s">
-        <v>1262</v>
+        <v>1251</v>
       </c>
       <c r="D131" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>134</v>
       </c>
@@ -6911,7 +6966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>135</v>
       </c>
@@ -6919,13 +6974,13 @@
         <v>710</v>
       </c>
       <c r="C133" t="s">
-        <v>1263</v>
+        <v>1252</v>
       </c>
       <c r="D133" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>136</v>
       </c>
@@ -6933,13 +6988,13 @@
         <v>711</v>
       </c>
       <c r="C134" t="s">
-        <v>1264</v>
+        <v>1253</v>
       </c>
       <c r="D134" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>137</v>
       </c>
@@ -6953,7 +7008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>138</v>
       </c>
@@ -6961,13 +7016,13 @@
         <v>713</v>
       </c>
       <c r="C136" t="s">
-        <v>1265</v>
+        <v>1571</v>
       </c>
       <c r="D136" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>139</v>
       </c>
@@ -6975,13 +7030,13 @@
         <v>714</v>
       </c>
       <c r="C137" t="s">
-        <v>1266</v>
+        <v>1254</v>
       </c>
       <c r="D137" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>140</v>
       </c>
@@ -6995,7 +7050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>141</v>
       </c>
@@ -7003,13 +7058,13 @@
         <v>716</v>
       </c>
       <c r="C139" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="D139" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>142</v>
       </c>
@@ -7023,7 +7078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>143</v>
       </c>
@@ -7031,13 +7086,13 @@
         <v>718</v>
       </c>
       <c r="C141" t="s">
-        <v>1267</v>
+        <v>1255</v>
       </c>
       <c r="D141" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>144</v>
       </c>
@@ -7045,13 +7100,13 @@
         <v>719</v>
       </c>
       <c r="C142" t="s">
-        <v>1268</v>
+        <v>1256</v>
       </c>
       <c r="D142" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>145</v>
       </c>
@@ -7059,13 +7114,13 @@
         <v>720</v>
       </c>
       <c r="C143" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="D143" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>146</v>
       </c>
@@ -7073,13 +7128,13 @@
         <v>721</v>
       </c>
       <c r="C144" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="D144" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>147</v>
       </c>
@@ -7087,13 +7142,13 @@
         <v>722</v>
       </c>
       <c r="C145" t="s">
-        <v>1271</v>
+        <v>1259</v>
       </c>
       <c r="D145" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>148</v>
       </c>
@@ -7107,7 +7162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>149</v>
       </c>
@@ -7115,13 +7170,13 @@
         <v>724</v>
       </c>
       <c r="C147" t="s">
-        <v>1272</v>
+        <v>1260</v>
       </c>
       <c r="D147" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>150</v>
       </c>
@@ -7129,13 +7184,13 @@
         <v>725</v>
       </c>
       <c r="C148" t="s">
-        <v>1273</v>
+        <v>1261</v>
       </c>
       <c r="D148" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>151</v>
       </c>
@@ -7143,13 +7198,13 @@
         <v>726</v>
       </c>
       <c r="C149" t="s">
-        <v>1274</v>
+        <v>1262</v>
       </c>
       <c r="D149" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>152</v>
       </c>
@@ -7157,13 +7212,13 @@
         <v>727</v>
       </c>
       <c r="C150" t="s">
-        <v>1275</v>
+        <v>1263</v>
       </c>
       <c r="D150" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>153</v>
       </c>
@@ -7171,13 +7226,13 @@
         <v>728</v>
       </c>
       <c r="C151" t="s">
-        <v>1276</v>
+        <v>1264</v>
       </c>
       <c r="D151" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>154</v>
       </c>
@@ -7191,7 +7246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>155</v>
       </c>
@@ -7199,13 +7254,13 @@
         <v>730</v>
       </c>
       <c r="C153" t="s">
-        <v>1277</v>
+        <v>1265</v>
       </c>
       <c r="D153" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>156</v>
       </c>
@@ -7213,13 +7268,13 @@
         <v>731</v>
       </c>
       <c r="C154" t="s">
-        <v>1278</v>
+        <v>1266</v>
       </c>
       <c r="D154" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>157</v>
       </c>
@@ -7227,13 +7282,13 @@
         <v>732</v>
       </c>
       <c r="C155" t="s">
-        <v>1279</v>
+        <v>1267</v>
       </c>
       <c r="D155" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>158</v>
       </c>
@@ -7241,13 +7296,13 @@
         <v>733</v>
       </c>
       <c r="C156" t="s">
-        <v>1280</v>
+        <v>1268</v>
       </c>
       <c r="D156" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>159</v>
       </c>
@@ -7255,13 +7310,13 @@
         <v>734</v>
       </c>
       <c r="C157" t="s">
-        <v>1281</v>
+        <v>1269</v>
       </c>
       <c r="D157" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>160</v>
       </c>
@@ -7275,7 +7330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>161</v>
       </c>
@@ -7283,13 +7338,13 @@
         <v>736</v>
       </c>
       <c r="C159" t="s">
-        <v>1282</v>
+        <v>1270</v>
       </c>
       <c r="D159" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>162</v>
       </c>
@@ -7303,7 +7358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>163</v>
       </c>
@@ -7317,7 +7372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>164</v>
       </c>
@@ -7325,13 +7380,13 @@
         <v>739</v>
       </c>
       <c r="C162" t="s">
-        <v>1283</v>
+        <v>1271</v>
       </c>
       <c r="D162" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>165</v>
       </c>
@@ -7339,13 +7394,13 @@
         <v>740</v>
       </c>
       <c r="C163" t="s">
-        <v>1185</v>
+        <v>1529</v>
       </c>
       <c r="D163" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>166</v>
       </c>
@@ -7353,13 +7408,13 @@
         <v>741</v>
       </c>
       <c r="C164" t="s">
-        <v>1284</v>
+        <v>1272</v>
       </c>
       <c r="D164" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>167</v>
       </c>
@@ -7367,13 +7422,13 @@
         <v>742</v>
       </c>
       <c r="C165" t="s">
-        <v>1285</v>
+        <v>1273</v>
       </c>
       <c r="D165" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>168</v>
       </c>
@@ -7381,13 +7436,13 @@
         <v>743</v>
       </c>
       <c r="C166" t="s">
-        <v>1286</v>
+        <v>1274</v>
       </c>
       <c r="D166" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>169</v>
       </c>
@@ -7395,13 +7450,13 @@
         <v>744</v>
       </c>
       <c r="C167" t="s">
-        <v>1287</v>
+        <v>1275</v>
       </c>
       <c r="D167" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>170</v>
       </c>
@@ -7409,13 +7464,13 @@
         <v>745</v>
       </c>
       <c r="C168" t="s">
-        <v>1288</v>
+        <v>1276</v>
       </c>
       <c r="D168" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>171</v>
       </c>
@@ -7423,13 +7478,13 @@
         <v>746</v>
       </c>
       <c r="C169" t="s">
-        <v>1289</v>
+        <v>1277</v>
       </c>
       <c r="D169" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>172</v>
       </c>
@@ -7437,13 +7492,13 @@
         <v>747</v>
       </c>
       <c r="C170" t="s">
-        <v>1290</v>
+        <v>1278</v>
       </c>
       <c r="D170" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>173</v>
       </c>
@@ -7451,13 +7506,13 @@
         <v>748</v>
       </c>
       <c r="C171" t="s">
-        <v>1291</v>
+        <v>1279</v>
       </c>
       <c r="D171" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>174</v>
       </c>
@@ -7465,13 +7520,13 @@
         <v>749</v>
       </c>
       <c r="C172" t="s">
-        <v>1292</v>
+        <v>1280</v>
       </c>
       <c r="D172" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>175</v>
       </c>
@@ -7479,13 +7534,13 @@
         <v>750</v>
       </c>
       <c r="C173" t="s">
-        <v>1293</v>
+        <v>1281</v>
       </c>
       <c r="D173" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>176</v>
       </c>
@@ -7499,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>177</v>
       </c>
@@ -7507,13 +7562,13 @@
         <v>752</v>
       </c>
       <c r="C175" t="s">
-        <v>1294</v>
+        <v>1282</v>
       </c>
       <c r="D175" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>178</v>
       </c>
@@ -7521,13 +7576,13 @@
         <v>753</v>
       </c>
       <c r="C176" t="s">
-        <v>1295</v>
+        <v>1283</v>
       </c>
       <c r="D176" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>179</v>
       </c>
@@ -7535,13 +7590,13 @@
         <v>754</v>
       </c>
       <c r="C177" t="s">
-        <v>1296</v>
+        <v>1284</v>
       </c>
       <c r="D177" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>180</v>
       </c>
@@ -7549,13 +7604,13 @@
         <v>755</v>
       </c>
       <c r="C178" t="s">
-        <v>1297</v>
+        <v>1285</v>
       </c>
       <c r="D178" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>181</v>
       </c>
@@ -7563,13 +7618,13 @@
         <v>756</v>
       </c>
       <c r="C179" t="s">
-        <v>1298</v>
+        <v>1568</v>
       </c>
       <c r="D179" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>182</v>
       </c>
@@ -7577,13 +7632,13 @@
         <v>757</v>
       </c>
       <c r="C180" t="s">
-        <v>1299</v>
+        <v>1286</v>
       </c>
       <c r="D180" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>183</v>
       </c>
@@ -7591,13 +7646,13 @@
         <v>758</v>
       </c>
       <c r="C181" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="D181" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>184</v>
       </c>
@@ -7605,13 +7660,13 @@
         <v>759</v>
       </c>
       <c r="C182" t="s">
-        <v>1301</v>
+        <v>1288</v>
       </c>
       <c r="D182" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>185</v>
       </c>
@@ -7619,13 +7674,13 @@
         <v>760</v>
       </c>
       <c r="C183" t="s">
-        <v>1302</v>
+        <v>1289</v>
       </c>
       <c r="D183" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>186</v>
       </c>
@@ -7633,13 +7688,13 @@
         <v>761</v>
       </c>
       <c r="C184" t="s">
-        <v>1303</v>
+        <v>1290</v>
       </c>
       <c r="D184" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>187</v>
       </c>
@@ -7647,13 +7702,13 @@
         <v>762</v>
       </c>
       <c r="C185" t="s">
-        <v>1304</v>
+        <v>1291</v>
       </c>
       <c r="D185" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>188</v>
       </c>
@@ -7667,7 +7722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>189</v>
       </c>
@@ -7675,13 +7730,13 @@
         <v>764</v>
       </c>
       <c r="C187" t="s">
-        <v>1305</v>
+        <v>1292</v>
       </c>
       <c r="D187" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>190</v>
       </c>
@@ -7689,13 +7744,13 @@
         <v>765</v>
       </c>
       <c r="C188" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D188" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>191</v>
       </c>
@@ -7709,7 +7764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>192</v>
       </c>
@@ -7717,13 +7772,13 @@
         <v>767</v>
       </c>
       <c r="C190" t="s">
-        <v>1306</v>
+        <v>1293</v>
       </c>
       <c r="D190" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>193</v>
       </c>
@@ -7737,7 +7792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>194</v>
       </c>
@@ -7745,13 +7800,13 @@
         <v>769</v>
       </c>
       <c r="C192" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
       <c r="D192" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>195</v>
       </c>
@@ -7759,13 +7814,13 @@
         <v>770</v>
       </c>
       <c r="C193" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="D193" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>196</v>
       </c>
@@ -7773,13 +7828,13 @@
         <v>771</v>
       </c>
       <c r="C194" t="s">
-        <v>1308</v>
+        <v>1295</v>
       </c>
       <c r="D194" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>197</v>
       </c>
@@ -7787,13 +7842,13 @@
         <v>772</v>
       </c>
       <c r="C195" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
       <c r="D195" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>198</v>
       </c>
@@ -7807,7 +7862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>199</v>
       </c>
@@ -7821,7 +7876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>200</v>
       </c>
@@ -7829,13 +7884,13 @@
         <v>775</v>
       </c>
       <c r="C198" t="s">
-        <v>1207</v>
+        <v>775</v>
       </c>
       <c r="D198" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>201</v>
       </c>
@@ -7843,13 +7898,13 @@
         <v>776</v>
       </c>
       <c r="C199" t="s">
-        <v>1310</v>
+        <v>1297</v>
       </c>
       <c r="D199" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>202</v>
       </c>
@@ -7857,13 +7912,13 @@
         <v>777</v>
       </c>
       <c r="C200" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="D200" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>203</v>
       </c>
@@ -7871,13 +7926,13 @@
         <v>778</v>
       </c>
       <c r="C201" t="s">
-        <v>1311</v>
+        <v>1298</v>
       </c>
       <c r="D201" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>204</v>
       </c>
@@ -7885,13 +7940,13 @@
         <v>779</v>
       </c>
       <c r="C202" t="s">
-        <v>1312</v>
+        <v>1299</v>
       </c>
       <c r="D202" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>205</v>
       </c>
@@ -7899,13 +7954,13 @@
         <v>780</v>
       </c>
       <c r="C203" t="s">
-        <v>1313</v>
+        <v>1300</v>
       </c>
       <c r="D203" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>206</v>
       </c>
@@ -7913,13 +7968,13 @@
         <v>781</v>
       </c>
       <c r="C204" t="s">
-        <v>1314</v>
+        <v>1301</v>
       </c>
       <c r="D204" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>207</v>
       </c>
@@ -7927,13 +7982,13 @@
         <v>782</v>
       </c>
       <c r="C205" t="s">
-        <v>1315</v>
+        <v>1302</v>
       </c>
       <c r="D205" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>208</v>
       </c>
@@ -7941,13 +7996,13 @@
         <v>783</v>
       </c>
       <c r="C206" t="s">
-        <v>1316</v>
+        <v>1303</v>
       </c>
       <c r="D206" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>209</v>
       </c>
@@ -7955,13 +8010,13 @@
         <v>784</v>
       </c>
       <c r="C207" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="D207" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>210</v>
       </c>
@@ -7969,13 +8024,13 @@
         <v>785</v>
       </c>
       <c r="C208" t="s">
-        <v>1191</v>
+        <v>1524</v>
       </c>
       <c r="D208" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>211</v>
       </c>
@@ -7983,13 +8038,13 @@
         <v>786</v>
       </c>
       <c r="C209" t="s">
-        <v>1317</v>
+        <v>1304</v>
       </c>
       <c r="D209" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>212</v>
       </c>
@@ -7997,13 +8052,13 @@
         <v>787</v>
       </c>
       <c r="C210" t="s">
-        <v>1318</v>
+        <v>1305</v>
       </c>
       <c r="D210" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>213</v>
       </c>
@@ -8017,7 +8072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>214</v>
       </c>
@@ -8025,13 +8080,13 @@
         <v>789</v>
       </c>
       <c r="C212" t="s">
-        <v>1319</v>
+        <v>1306</v>
       </c>
       <c r="D212" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>215</v>
       </c>
@@ -8039,13 +8094,13 @@
         <v>790</v>
       </c>
       <c r="C213" t="s">
-        <v>1320</v>
+        <v>1307</v>
       </c>
       <c r="D213" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>216</v>
       </c>
@@ -8053,13 +8108,13 @@
         <v>791</v>
       </c>
       <c r="C214" t="s">
-        <v>1321</v>
+        <v>1308</v>
       </c>
       <c r="D214" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>217</v>
       </c>
@@ -8067,13 +8122,13 @@
         <v>792</v>
       </c>
       <c r="C215" t="s">
-        <v>1322</v>
+        <v>1309</v>
       </c>
       <c r="D215" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>218</v>
       </c>
@@ -8081,13 +8136,13 @@
         <v>793</v>
       </c>
       <c r="C216" t="s">
-        <v>1323</v>
+        <v>1310</v>
       </c>
       <c r="D216" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>219</v>
       </c>
@@ -8095,13 +8150,13 @@
         <v>794</v>
       </c>
       <c r="C217" t="s">
-        <v>1324</v>
+        <v>1311</v>
       </c>
       <c r="D217" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>220</v>
       </c>
@@ -8115,7 +8170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>221</v>
       </c>
@@ -8123,13 +8178,13 @@
         <v>796</v>
       </c>
       <c r="C219" t="s">
-        <v>1325</v>
+        <v>1312</v>
       </c>
       <c r="D219" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>222</v>
       </c>
@@ -8137,13 +8192,13 @@
         <v>797</v>
       </c>
       <c r="C220" t="s">
-        <v>1326</v>
+        <v>1313</v>
       </c>
       <c r="D220" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>223</v>
       </c>
@@ -8151,13 +8206,13 @@
         <v>798</v>
       </c>
       <c r="C221" t="s">
-        <v>1327</v>
+        <v>1314</v>
       </c>
       <c r="D221" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>224</v>
       </c>
@@ -8165,13 +8220,13 @@
         <v>799</v>
       </c>
       <c r="C222" t="s">
-        <v>1178</v>
+        <v>1545</v>
       </c>
       <c r="D222" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>225</v>
       </c>
@@ -8179,13 +8234,13 @@
         <v>800</v>
       </c>
       <c r="C223" t="s">
-        <v>1328</v>
+        <v>1315</v>
       </c>
       <c r="D223" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>226</v>
       </c>
@@ -8193,13 +8248,13 @@
         <v>801</v>
       </c>
       <c r="C224" t="s">
-        <v>1329</v>
+        <v>1546</v>
       </c>
       <c r="D224" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>227</v>
       </c>
@@ -8207,13 +8262,13 @@
         <v>802</v>
       </c>
       <c r="C225" t="s">
-        <v>1286</v>
+        <v>1274</v>
       </c>
       <c r="D225" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>228</v>
       </c>
@@ -8227,7 +8282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>229</v>
       </c>
@@ -8235,13 +8290,13 @@
         <v>804</v>
       </c>
       <c r="C227" t="s">
-        <v>1330</v>
+        <v>1316</v>
       </c>
       <c r="D227" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>230</v>
       </c>
@@ -8249,13 +8304,13 @@
         <v>805</v>
       </c>
       <c r="C228" t="s">
-        <v>1266</v>
+        <v>1254</v>
       </c>
       <c r="D228" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>231</v>
       </c>
@@ -8263,13 +8318,13 @@
         <v>806</v>
       </c>
       <c r="C229" t="s">
-        <v>1331</v>
+        <v>1317</v>
       </c>
       <c r="D229" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>232</v>
       </c>
@@ -8277,13 +8332,13 @@
         <v>807</v>
       </c>
       <c r="C230" t="s">
-        <v>1332</v>
+        <v>1318</v>
       </c>
       <c r="D230" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>233</v>
       </c>
@@ -8291,13 +8346,13 @@
         <v>808</v>
       </c>
       <c r="C231" t="s">
-        <v>1285</v>
+        <v>1273</v>
       </c>
       <c r="D231" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>234</v>
       </c>
@@ -8305,13 +8360,13 @@
         <v>809</v>
       </c>
       <c r="C232" t="s">
-        <v>1333</v>
+        <v>1319</v>
       </c>
       <c r="D232" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>235</v>
       </c>
@@ -8319,13 +8374,13 @@
         <v>810</v>
       </c>
       <c r="C233" t="s">
-        <v>1334</v>
+        <v>1320</v>
       </c>
       <c r="D233" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>236</v>
       </c>
@@ -8333,13 +8388,13 @@
         <v>811</v>
       </c>
       <c r="C234" t="s">
-        <v>1335</v>
+        <v>1321</v>
       </c>
       <c r="D234" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>237</v>
       </c>
@@ -8347,13 +8402,13 @@
         <v>812</v>
       </c>
       <c r="C235" t="s">
-        <v>1336</v>
+        <v>1322</v>
       </c>
       <c r="D235" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>238</v>
       </c>
@@ -8361,13 +8416,13 @@
         <v>813</v>
       </c>
       <c r="C236" t="s">
-        <v>1337</v>
+        <v>1323</v>
       </c>
       <c r="D236" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>239</v>
       </c>
@@ -8375,13 +8430,13 @@
         <v>814</v>
       </c>
       <c r="C237" t="s">
-        <v>1338</v>
+        <v>1324</v>
       </c>
       <c r="D237" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>240</v>
       </c>
@@ -8389,13 +8444,13 @@
         <v>815</v>
       </c>
       <c r="C238" t="s">
-        <v>1339</v>
+        <v>1325</v>
       </c>
       <c r="D238" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>241</v>
       </c>
@@ -8403,13 +8458,13 @@
         <v>816</v>
       </c>
       <c r="C239" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D239" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>242</v>
       </c>
@@ -8417,13 +8472,13 @@
         <v>817</v>
       </c>
       <c r="C240" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D240" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>243</v>
       </c>
@@ -8437,7 +8492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>244</v>
       </c>
@@ -8445,13 +8500,13 @@
         <v>819</v>
       </c>
       <c r="C242" t="s">
-        <v>1340</v>
+        <v>1326</v>
       </c>
       <c r="D242" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>245</v>
       </c>
@@ -8459,13 +8514,13 @@
         <v>820</v>
       </c>
       <c r="C243" t="s">
-        <v>1341</v>
+        <v>1327</v>
       </c>
       <c r="D243" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>246</v>
       </c>
@@ -8473,13 +8528,13 @@
         <v>821</v>
       </c>
       <c r="C244" t="s">
-        <v>1342</v>
+        <v>1328</v>
       </c>
       <c r="D244" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>247</v>
       </c>
@@ -8487,13 +8542,13 @@
         <v>822</v>
       </c>
       <c r="C245" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="D245" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>248</v>
       </c>
@@ -8501,13 +8556,13 @@
         <v>823</v>
       </c>
       <c r="C246" t="s">
-        <v>1343</v>
+        <v>1329</v>
       </c>
       <c r="D246" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>249</v>
       </c>
@@ -8515,13 +8570,13 @@
         <v>824</v>
       </c>
       <c r="C247" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="D247" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>250</v>
       </c>
@@ -8529,13 +8584,13 @@
         <v>825</v>
       </c>
       <c r="C248" t="s">
-        <v>1344</v>
+        <v>1330</v>
       </c>
       <c r="D248" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>251</v>
       </c>
@@ -8543,13 +8598,13 @@
         <v>826</v>
       </c>
       <c r="C249" t="s">
-        <v>1345</v>
+        <v>1331</v>
       </c>
       <c r="D249" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>252</v>
       </c>
@@ -8563,7 +8618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>253</v>
       </c>
@@ -8571,13 +8626,13 @@
         <v>828</v>
       </c>
       <c r="C251" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="D251" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>254</v>
       </c>
@@ -8585,13 +8640,13 @@
         <v>829</v>
       </c>
       <c r="C252" t="s">
-        <v>1346</v>
+        <v>1332</v>
       </c>
       <c r="D252" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>255</v>
       </c>
@@ -8599,13 +8654,13 @@
         <v>830</v>
       </c>
       <c r="C253" t="s">
-        <v>1347</v>
+        <v>1333</v>
       </c>
       <c r="D253" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>256</v>
       </c>
@@ -8613,13 +8668,13 @@
         <v>831</v>
       </c>
       <c r="C254" t="s">
-        <v>1348</v>
+        <v>1334</v>
       </c>
       <c r="D254" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>257</v>
       </c>
@@ -8633,7 +8688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>258</v>
       </c>
@@ -8641,13 +8696,13 @@
         <v>833</v>
       </c>
       <c r="C256" t="s">
-        <v>1349</v>
+        <v>1335</v>
       </c>
       <c r="D256" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>259</v>
       </c>
@@ -8655,13 +8710,13 @@
         <v>834</v>
       </c>
       <c r="C257" t="s">
-        <v>1285</v>
+        <v>1273</v>
       </c>
       <c r="D257" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>260</v>
       </c>
@@ -8675,7 +8730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>261</v>
       </c>
@@ -8683,13 +8738,13 @@
         <v>836</v>
       </c>
       <c r="C259" t="s">
-        <v>1350</v>
+        <v>1336</v>
       </c>
       <c r="D259" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>262</v>
       </c>
@@ -8703,7 +8758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>263</v>
       </c>
@@ -8711,13 +8766,13 @@
         <v>838</v>
       </c>
       <c r="C261" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="D261" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>264</v>
       </c>
@@ -8725,13 +8780,13 @@
         <v>839</v>
       </c>
       <c r="C262" t="s">
-        <v>1351</v>
+        <v>1337</v>
       </c>
       <c r="D262" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>265</v>
       </c>
@@ -8739,13 +8794,13 @@
         <v>840</v>
       </c>
       <c r="C263" t="s">
-        <v>1352</v>
+        <v>1547</v>
       </c>
       <c r="D263" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>266</v>
       </c>
@@ -8753,13 +8808,13 @@
         <v>841</v>
       </c>
       <c r="C264" t="s">
-        <v>1353</v>
+        <v>1338</v>
       </c>
       <c r="D264" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>267</v>
       </c>
@@ -8773,7 +8828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>268</v>
       </c>
@@ -8781,13 +8836,13 @@
         <v>843</v>
       </c>
       <c r="C266" t="s">
-        <v>1354</v>
+        <v>1339</v>
       </c>
       <c r="D266" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>269</v>
       </c>
@@ -8795,13 +8850,13 @@
         <v>844</v>
       </c>
       <c r="C267" t="s">
-        <v>1355</v>
+        <v>1340</v>
       </c>
       <c r="D267" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>270</v>
       </c>
@@ -8815,7 +8870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>271</v>
       </c>
@@ -8823,13 +8878,13 @@
         <v>846</v>
       </c>
       <c r="C269" t="s">
-        <v>1356</v>
+        <v>1341</v>
       </c>
       <c r="D269" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>272</v>
       </c>
@@ -8843,7 +8898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>273</v>
       </c>
@@ -8851,13 +8906,13 @@
         <v>848</v>
       </c>
       <c r="C271" t="s">
-        <v>1357</v>
+        <v>1342</v>
       </c>
       <c r="D271" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>274</v>
       </c>
@@ -8865,13 +8920,13 @@
         <v>849</v>
       </c>
       <c r="C272" t="s">
-        <v>1358</v>
+        <v>1343</v>
       </c>
       <c r="D272" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>275</v>
       </c>
@@ -8879,13 +8934,13 @@
         <v>850</v>
       </c>
       <c r="C273" t="s">
-        <v>1359</v>
+        <v>1344</v>
       </c>
       <c r="D273" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>276</v>
       </c>
@@ -8893,13 +8948,13 @@
         <v>851</v>
       </c>
       <c r="C274" t="s">
-        <v>1360</v>
+        <v>1345</v>
       </c>
       <c r="D274" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>277</v>
       </c>
@@ -8907,13 +8962,13 @@
         <v>852</v>
       </c>
       <c r="C275" t="s">
-        <v>1361</v>
+        <v>1346</v>
       </c>
       <c r="D275" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>278</v>
       </c>
@@ -8927,7 +8982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>279</v>
       </c>
@@ -8935,13 +8990,13 @@
         <v>854</v>
       </c>
       <c r="C277" t="s">
-        <v>1240</v>
+        <v>1233</v>
       </c>
       <c r="D277" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>280</v>
       </c>
@@ -8949,13 +9004,13 @@
         <v>855</v>
       </c>
       <c r="C278" t="s">
-        <v>1362</v>
+        <v>1347</v>
       </c>
       <c r="D278" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>281</v>
       </c>
@@ -8963,13 +9018,13 @@
         <v>856</v>
       </c>
       <c r="C279" t="s">
-        <v>1363</v>
+        <v>1348</v>
       </c>
       <c r="D279" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>282</v>
       </c>
@@ -8977,13 +9032,13 @@
         <v>857</v>
       </c>
       <c r="C280" t="s">
-        <v>1364</v>
+        <v>1349</v>
       </c>
       <c r="D280" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>283</v>
       </c>
@@ -8991,13 +9046,13 @@
         <v>858</v>
       </c>
       <c r="C281" t="s">
-        <v>1365</v>
+        <v>1350</v>
       </c>
       <c r="D281" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>284</v>
       </c>
@@ -9005,13 +9060,13 @@
         <v>859</v>
       </c>
       <c r="C282" t="s">
-        <v>1227</v>
+        <v>1548</v>
       </c>
       <c r="D282" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>285</v>
       </c>
@@ -9019,13 +9074,13 @@
         <v>860</v>
       </c>
       <c r="C283" t="s">
-        <v>1366</v>
+        <v>1351</v>
       </c>
       <c r="D283" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>286</v>
       </c>
@@ -9033,13 +9088,13 @@
         <v>861</v>
       </c>
       <c r="C284" t="s">
-        <v>1367</v>
+        <v>1352</v>
       </c>
       <c r="D284" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>287</v>
       </c>
@@ -9047,13 +9102,13 @@
         <v>862</v>
       </c>
       <c r="C285" t="s">
-        <v>1368</v>
+        <v>1353</v>
       </c>
       <c r="D285" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>288</v>
       </c>
@@ -9061,13 +9116,13 @@
         <v>863</v>
       </c>
       <c r="C286" t="s">
-        <v>1369</v>
+        <v>1354</v>
       </c>
       <c r="D286" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>289</v>
       </c>
@@ -9075,13 +9130,13 @@
         <v>864</v>
       </c>
       <c r="C287" t="s">
-        <v>1370</v>
+        <v>1355</v>
       </c>
       <c r="D287" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>290</v>
       </c>
@@ -9089,13 +9144,13 @@
         <v>865</v>
       </c>
       <c r="C288" t="s">
-        <v>1371</v>
+        <v>1356</v>
       </c>
       <c r="D288" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>291</v>
       </c>
@@ -9103,13 +9158,13 @@
         <v>866</v>
       </c>
       <c r="C289" t="s">
-        <v>1372</v>
+        <v>1357</v>
       </c>
       <c r="D289" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>292</v>
       </c>
@@ -9117,13 +9172,13 @@
         <v>867</v>
       </c>
       <c r="C290" t="s">
-        <v>1373</v>
+        <v>1358</v>
       </c>
       <c r="D290" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>293</v>
       </c>
@@ -9131,13 +9186,13 @@
         <v>868</v>
       </c>
       <c r="C291" t="s">
-        <v>1374</v>
+        <v>1359</v>
       </c>
       <c r="D291" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>294</v>
       </c>
@@ -9151,7 +9206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>295</v>
       </c>
@@ -9159,13 +9214,13 @@
         <v>870</v>
       </c>
       <c r="C293" t="s">
-        <v>1263</v>
+        <v>1252</v>
       </c>
       <c r="D293" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>296</v>
       </c>
@@ -9173,13 +9228,13 @@
         <v>871</v>
       </c>
       <c r="C294" t="s">
-        <v>1375</v>
+        <v>1360</v>
       </c>
       <c r="D294" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>297</v>
       </c>
@@ -9187,13 +9242,13 @@
         <v>872</v>
       </c>
       <c r="C295" t="s">
-        <v>1376</v>
+        <v>1361</v>
       </c>
       <c r="D295" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>298</v>
       </c>
@@ -9201,13 +9256,13 @@
         <v>873</v>
       </c>
       <c r="C296" t="s">
-        <v>1377</v>
+        <v>1362</v>
       </c>
       <c r="D296" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>299</v>
       </c>
@@ -9215,13 +9270,13 @@
         <v>874</v>
       </c>
       <c r="C297" t="s">
-        <v>1378</v>
+        <v>1363</v>
       </c>
       <c r="D297" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>300</v>
       </c>
@@ -9229,13 +9284,13 @@
         <v>875</v>
       </c>
       <c r="C298" t="s">
-        <v>1367</v>
+        <v>1352</v>
       </c>
       <c r="D298" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>301</v>
       </c>
@@ -9243,13 +9298,13 @@
         <v>876</v>
       </c>
       <c r="C299" t="s">
-        <v>1379</v>
+        <v>1364</v>
       </c>
       <c r="D299" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>302</v>
       </c>
@@ -9257,13 +9312,13 @@
         <v>877</v>
       </c>
       <c r="C300" t="s">
-        <v>1380</v>
+        <v>1365</v>
       </c>
       <c r="D300" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>303</v>
       </c>
@@ -9277,7 +9332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>304</v>
       </c>
@@ -9285,13 +9340,13 @@
         <v>879</v>
       </c>
       <c r="C302" t="s">
-        <v>1381</v>
+        <v>1366</v>
       </c>
       <c r="D302" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>305</v>
       </c>
@@ -9299,13 +9354,13 @@
         <v>880</v>
       </c>
       <c r="C303" t="s">
-        <v>1382</v>
+        <v>1367</v>
       </c>
       <c r="D303" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>306</v>
       </c>
@@ -9313,13 +9368,13 @@
         <v>881</v>
       </c>
       <c r="C304" t="s">
-        <v>1383</v>
+        <v>1368</v>
       </c>
       <c r="D304" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>307</v>
       </c>
@@ -9327,13 +9382,13 @@
         <v>882</v>
       </c>
       <c r="C305" t="s">
-        <v>1384</v>
+        <v>1369</v>
       </c>
       <c r="D305" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>308</v>
       </c>
@@ -9341,13 +9396,13 @@
         <v>883</v>
       </c>
       <c r="C306" t="s">
-        <v>1385</v>
+        <v>1370</v>
       </c>
       <c r="D306" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>309</v>
       </c>
@@ -9355,13 +9410,13 @@
         <v>884</v>
       </c>
       <c r="C307" t="s">
-        <v>1386</v>
+        <v>1371</v>
       </c>
       <c r="D307" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>310</v>
       </c>
@@ -9375,7 +9430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>311</v>
       </c>
@@ -9383,13 +9438,13 @@
         <v>886</v>
       </c>
       <c r="C309" t="s">
-        <v>1387</v>
+        <v>1372</v>
       </c>
       <c r="D309" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>312</v>
       </c>
@@ -9397,13 +9452,13 @@
         <v>887</v>
       </c>
       <c r="C310" t="s">
-        <v>1388</v>
+        <v>1373</v>
       </c>
       <c r="D310" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>313</v>
       </c>
@@ -9411,13 +9466,13 @@
         <v>888</v>
       </c>
       <c r="C311" t="s">
-        <v>1389</v>
+        <v>1374</v>
       </c>
       <c r="D311" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>314</v>
       </c>
@@ -9431,7 +9486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>315</v>
       </c>
@@ -9439,13 +9494,13 @@
         <v>890</v>
       </c>
       <c r="C313" t="s">
-        <v>1390</v>
+        <v>1375</v>
       </c>
       <c r="D313" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>316</v>
       </c>
@@ -9453,13 +9508,13 @@
         <v>891</v>
       </c>
       <c r="C314" t="s">
-        <v>1391</v>
+        <v>1376</v>
       </c>
       <c r="D314" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>317</v>
       </c>
@@ -9467,13 +9522,13 @@
         <v>892</v>
       </c>
       <c r="C315" t="s">
-        <v>1392</v>
+        <v>1377</v>
       </c>
       <c r="D315" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>318</v>
       </c>
@@ -9487,7 +9542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>319</v>
       </c>
@@ -9495,13 +9550,13 @@
         <v>894</v>
       </c>
       <c r="C317" t="s">
-        <v>1393</v>
+        <v>1378</v>
       </c>
       <c r="D317" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>320</v>
       </c>
@@ -9509,13 +9564,13 @@
         <v>895</v>
       </c>
       <c r="C318" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="D318" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>321</v>
       </c>
@@ -9523,13 +9578,13 @@
         <v>896</v>
       </c>
       <c r="C319" t="s">
-        <v>1285</v>
+        <v>1273</v>
       </c>
       <c r="D319" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>322</v>
       </c>
@@ -9537,13 +9592,13 @@
         <v>897</v>
       </c>
       <c r="C320" t="s">
-        <v>1240</v>
+        <v>1233</v>
       </c>
       <c r="D320" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>323</v>
       </c>
@@ -9551,13 +9606,13 @@
         <v>898</v>
       </c>
       <c r="C321" t="s">
-        <v>1394</v>
+        <v>1379</v>
       </c>
       <c r="D321" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>324</v>
       </c>
@@ -9571,7 +9626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>325</v>
       </c>
@@ -9585,7 +9640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>326</v>
       </c>
@@ -9593,13 +9648,13 @@
         <v>901</v>
       </c>
       <c r="C324" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="D324" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>327</v>
       </c>
@@ -9607,13 +9662,13 @@
         <v>902</v>
       </c>
       <c r="C325" t="s">
-        <v>1395</v>
+        <v>1380</v>
       </c>
       <c r="D325" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>328</v>
       </c>
@@ -9627,7 +9682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>329</v>
       </c>
@@ -9635,13 +9690,13 @@
         <v>904</v>
       </c>
       <c r="C327" t="s">
-        <v>1396</v>
+        <v>1381</v>
       </c>
       <c r="D327" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>330</v>
       </c>
@@ -9649,13 +9704,13 @@
         <v>905</v>
       </c>
       <c r="C328" t="s">
-        <v>1397</v>
+        <v>1382</v>
       </c>
       <c r="D328" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>331</v>
       </c>
@@ -9663,13 +9718,13 @@
         <v>906</v>
       </c>
       <c r="C329" t="s">
-        <v>1398</v>
+        <v>1383</v>
       </c>
       <c r="D329" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>332</v>
       </c>
@@ -9677,13 +9732,13 @@
         <v>907</v>
       </c>
       <c r="C330" t="s">
-        <v>1399</v>
+        <v>1384</v>
       </c>
       <c r="D330" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>333</v>
       </c>
@@ -9691,13 +9746,13 @@
         <v>908</v>
       </c>
       <c r="C331" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="D331" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>334</v>
       </c>
@@ -9705,13 +9760,13 @@
         <v>909</v>
       </c>
       <c r="C332" t="s">
-        <v>1325</v>
+        <v>1312</v>
       </c>
       <c r="D332" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>335</v>
       </c>
@@ -9719,13 +9774,13 @@
         <v>910</v>
       </c>
       <c r="C333" t="s">
-        <v>1400</v>
+        <v>1385</v>
       </c>
       <c r="D333" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>336</v>
       </c>
@@ -9733,13 +9788,13 @@
         <v>911</v>
       </c>
       <c r="C334" t="s">
-        <v>1387</v>
+        <v>1372</v>
       </c>
       <c r="D334" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>337</v>
       </c>
@@ -9753,7 +9808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>338</v>
       </c>
@@ -9761,13 +9816,13 @@
         <v>913</v>
       </c>
       <c r="C336" t="s">
-        <v>1401</v>
+        <v>1386</v>
       </c>
       <c r="D336" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>339</v>
       </c>
@@ -9775,13 +9830,13 @@
         <v>914</v>
       </c>
       <c r="C337" t="s">
-        <v>1402</v>
+        <v>1387</v>
       </c>
       <c r="D337" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>340</v>
       </c>
@@ -9795,7 +9850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>341</v>
       </c>
@@ -9803,13 +9858,13 @@
         <v>916</v>
       </c>
       <c r="C339" t="s">
-        <v>1311</v>
+        <v>1298</v>
       </c>
       <c r="D339" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>342</v>
       </c>
@@ -9817,13 +9872,13 @@
         <v>917</v>
       </c>
       <c r="C340" t="s">
-        <v>1403</v>
+        <v>1388</v>
       </c>
       <c r="D340" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>343</v>
       </c>
@@ -9831,13 +9886,13 @@
         <v>918</v>
       </c>
       <c r="C341" t="s">
-        <v>1404</v>
+        <v>1389</v>
       </c>
       <c r="D341" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>344</v>
       </c>
@@ -9845,13 +9900,13 @@
         <v>919</v>
       </c>
       <c r="C342" t="s">
-        <v>1405</v>
+        <v>1390</v>
       </c>
       <c r="D342" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>345</v>
       </c>
@@ -9865,7 +9920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>346</v>
       </c>
@@ -9873,13 +9928,13 @@
         <v>921</v>
       </c>
       <c r="C344" t="s">
-        <v>1406</v>
+        <v>1391</v>
       </c>
       <c r="D344" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>347</v>
       </c>
@@ -9887,13 +9942,13 @@
         <v>922</v>
       </c>
       <c r="C345" t="s">
-        <v>1354</v>
+        <v>1339</v>
       </c>
       <c r="D345" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>348</v>
       </c>
@@ -9901,13 +9956,13 @@
         <v>923</v>
       </c>
       <c r="C346" t="s">
-        <v>1407</v>
+        <v>1392</v>
       </c>
       <c r="D346" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>349</v>
       </c>
@@ -9915,13 +9970,13 @@
         <v>924</v>
       </c>
       <c r="C347" t="s">
-        <v>1408</v>
+        <v>1393</v>
       </c>
       <c r="D347" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>350</v>
       </c>
@@ -9929,13 +9984,13 @@
         <v>925</v>
       </c>
       <c r="C348" t="s">
-        <v>1344</v>
+        <v>1549</v>
       </c>
       <c r="D348" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>351</v>
       </c>
@@ -9943,13 +9998,13 @@
         <v>926</v>
       </c>
       <c r="C349" t="s">
-        <v>1312</v>
+        <v>1550</v>
       </c>
       <c r="D349" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>352</v>
       </c>
@@ -9963,7 +10018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>353</v>
       </c>
@@ -9977,7 +10032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>354</v>
       </c>
@@ -9985,13 +10040,13 @@
         <v>929</v>
       </c>
       <c r="C352" t="s">
-        <v>1409</v>
+        <v>1394</v>
       </c>
       <c r="D352" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>355</v>
       </c>
@@ -9999,13 +10054,13 @@
         <v>930</v>
       </c>
       <c r="C353" t="s">
-        <v>1410</v>
+        <v>1395</v>
       </c>
       <c r="D353" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>356</v>
       </c>
@@ -10013,13 +10068,13 @@
         <v>931</v>
       </c>
       <c r="C354" t="s">
-        <v>1411</v>
+        <v>1396</v>
       </c>
       <c r="D354" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>357</v>
       </c>
@@ -10027,13 +10082,13 @@
         <v>932</v>
       </c>
       <c r="C355" t="s">
-        <v>1221</v>
+        <v>1565</v>
       </c>
       <c r="D355" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>358</v>
       </c>
@@ -10041,13 +10096,13 @@
         <v>933</v>
       </c>
       <c r="C356" t="s">
-        <v>1412</v>
+        <v>1397</v>
       </c>
       <c r="D356" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>359</v>
       </c>
@@ -10061,7 +10116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>360</v>
       </c>
@@ -10069,13 +10124,13 @@
         <v>935</v>
       </c>
       <c r="C358" t="s">
-        <v>1413</v>
+        <v>1398</v>
       </c>
       <c r="D358" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>361</v>
       </c>
@@ -10089,7 +10144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>362</v>
       </c>
@@ -10097,13 +10152,13 @@
         <v>937</v>
       </c>
       <c r="C360" t="s">
-        <v>1414</v>
+        <v>1399</v>
       </c>
       <c r="D360" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>363</v>
       </c>
@@ -10111,13 +10166,13 @@
         <v>938</v>
       </c>
       <c r="C361" t="s">
-        <v>1415</v>
+        <v>1400</v>
       </c>
       <c r="D361" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>364</v>
       </c>
@@ -10125,13 +10180,13 @@
         <v>939</v>
       </c>
       <c r="C362" t="s">
-        <v>1330</v>
+        <v>1316</v>
       </c>
       <c r="D362" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>365</v>
       </c>
@@ -10145,7 +10200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>366</v>
       </c>
@@ -10153,13 +10208,13 @@
         <v>941</v>
       </c>
       <c r="C364" t="s">
-        <v>1239</v>
+        <v>1168</v>
       </c>
       <c r="D364" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>367</v>
       </c>
@@ -10167,13 +10222,13 @@
         <v>942</v>
       </c>
       <c r="C365" t="s">
-        <v>1416</v>
+        <v>1401</v>
       </c>
       <c r="D365" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>368</v>
       </c>
@@ -10187,7 +10242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>369</v>
       </c>
@@ -10195,13 +10250,13 @@
         <v>944</v>
       </c>
       <c r="C367" t="s">
-        <v>1417</v>
+        <v>1402</v>
       </c>
       <c r="D367" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>370</v>
       </c>
@@ -10209,13 +10264,13 @@
         <v>945</v>
       </c>
       <c r="C368" t="s">
-        <v>1418</v>
+        <v>1403</v>
       </c>
       <c r="D368" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>371</v>
       </c>
@@ -10223,13 +10278,13 @@
         <v>946</v>
       </c>
       <c r="C369" t="s">
-        <v>1419</v>
+        <v>1404</v>
       </c>
       <c r="D369" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>372</v>
       </c>
@@ -10237,13 +10292,13 @@
         <v>947</v>
       </c>
       <c r="C370" t="s">
-        <v>1420</v>
+        <v>1405</v>
       </c>
       <c r="D370" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>373</v>
       </c>
@@ -10251,13 +10306,13 @@
         <v>948</v>
       </c>
       <c r="C371" t="s">
-        <v>1421</v>
+        <v>1406</v>
       </c>
       <c r="D371" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>374</v>
       </c>
@@ -10265,13 +10320,13 @@
         <v>949</v>
       </c>
       <c r="C372" t="s">
-        <v>1422</v>
+        <v>1407</v>
       </c>
       <c r="D372" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>375</v>
       </c>
@@ -10279,13 +10334,13 @@
         <v>950</v>
       </c>
       <c r="C373" t="s">
-        <v>1361</v>
+        <v>1346</v>
       </c>
       <c r="D373" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>376</v>
       </c>
@@ -10293,13 +10348,13 @@
         <v>951</v>
       </c>
       <c r="C374" t="s">
-        <v>1423</v>
+        <v>1408</v>
       </c>
       <c r="D374" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>377</v>
       </c>
@@ -10307,13 +10362,13 @@
         <v>952</v>
       </c>
       <c r="C375" t="s">
-        <v>1424</v>
+        <v>1409</v>
       </c>
       <c r="D375" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>378</v>
       </c>
@@ -10321,13 +10376,13 @@
         <v>953</v>
       </c>
       <c r="C376" t="s">
-        <v>1425</v>
+        <v>1410</v>
       </c>
       <c r="D376" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>379</v>
       </c>
@@ -10335,13 +10390,13 @@
         <v>954</v>
       </c>
       <c r="C377" t="s">
-        <v>1409</v>
+        <v>1394</v>
       </c>
       <c r="D377" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>380</v>
       </c>
@@ -10349,13 +10404,13 @@
         <v>955</v>
       </c>
       <c r="C378" t="s">
-        <v>1426</v>
+        <v>1411</v>
       </c>
       <c r="D378" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>381</v>
       </c>
@@ -10363,13 +10418,13 @@
         <v>956</v>
       </c>
       <c r="C379" t="s">
-        <v>1427</v>
+        <v>1412</v>
       </c>
       <c r="D379" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>382</v>
       </c>
@@ -10377,13 +10432,13 @@
         <v>957</v>
       </c>
       <c r="C380" t="s">
-        <v>1330</v>
+        <v>1316</v>
       </c>
       <c r="D380" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>383</v>
       </c>
@@ -10391,13 +10446,13 @@
         <v>958</v>
       </c>
       <c r="C381" t="s">
-        <v>1320</v>
+        <v>1307</v>
       </c>
       <c r="D381" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>384</v>
       </c>
@@ -10405,13 +10460,13 @@
         <v>959</v>
       </c>
       <c r="C382" t="s">
-        <v>1357</v>
+        <v>1342</v>
       </c>
       <c r="D382" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>385</v>
       </c>
@@ -10419,13 +10474,13 @@
         <v>960</v>
       </c>
       <c r="C383" t="s">
-        <v>1428</v>
+        <v>1413</v>
       </c>
       <c r="D383" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>386</v>
       </c>
@@ -10433,13 +10488,13 @@
         <v>961</v>
       </c>
       <c r="C384" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="D384" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>387</v>
       </c>
@@ -10447,13 +10502,13 @@
         <v>962</v>
       </c>
       <c r="C385" t="s">
-        <v>1429</v>
+        <v>1414</v>
       </c>
       <c r="D385" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>388</v>
       </c>
@@ -10461,13 +10516,13 @@
         <v>963</v>
       </c>
       <c r="C386" t="s">
-        <v>1430</v>
+        <v>1415</v>
       </c>
       <c r="D386" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>389</v>
       </c>
@@ -10475,13 +10530,13 @@
         <v>964</v>
       </c>
       <c r="C387" t="s">
-        <v>1431</v>
+        <v>1416</v>
       </c>
       <c r="D387" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>390</v>
       </c>
@@ -10489,13 +10544,13 @@
         <v>965</v>
       </c>
       <c r="C388" t="s">
-        <v>1432</v>
+        <v>1417</v>
       </c>
       <c r="D388" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>391</v>
       </c>
@@ -10509,7 +10564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>392</v>
       </c>
@@ -10517,13 +10572,13 @@
         <v>967</v>
       </c>
       <c r="C390" t="s">
-        <v>1311</v>
+        <v>1298</v>
       </c>
       <c r="D390" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>393</v>
       </c>
@@ -10537,7 +10592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>394</v>
       </c>
@@ -10545,13 +10600,13 @@
         <v>969</v>
       </c>
       <c r="C392" t="s">
-        <v>1433</v>
+        <v>1418</v>
       </c>
       <c r="D392" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>395</v>
       </c>
@@ -10559,13 +10614,13 @@
         <v>970</v>
       </c>
       <c r="C393" t="s">
-        <v>1434</v>
+        <v>1419</v>
       </c>
       <c r="D393" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>396</v>
       </c>
@@ -10579,7 +10634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>397</v>
       </c>
@@ -10587,13 +10642,13 @@
         <v>972</v>
       </c>
       <c r="C395" t="s">
-        <v>1435</v>
+        <v>1420</v>
       </c>
       <c r="D395" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>398</v>
       </c>
@@ -10601,13 +10656,13 @@
         <v>973</v>
       </c>
       <c r="C396" t="s">
-        <v>1436</v>
+        <v>1421</v>
       </c>
       <c r="D396" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>399</v>
       </c>
@@ -10615,13 +10670,13 @@
         <v>974</v>
       </c>
       <c r="C397" t="s">
-        <v>1437</v>
+        <v>1422</v>
       </c>
       <c r="D397" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>400</v>
       </c>
@@ -10629,13 +10684,13 @@
         <v>975</v>
       </c>
       <c r="C398" t="s">
-        <v>1165</v>
+        <v>1551</v>
       </c>
       <c r="D398" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>401</v>
       </c>
@@ -10643,13 +10698,13 @@
         <v>976</v>
       </c>
       <c r="C399" t="s">
-        <v>1438</v>
+        <v>1423</v>
       </c>
       <c r="D399" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>402</v>
       </c>
@@ -10657,13 +10712,13 @@
         <v>977</v>
       </c>
       <c r="C400" t="s">
-        <v>1439</v>
+        <v>1424</v>
       </c>
       <c r="D400" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>403</v>
       </c>
@@ -10671,13 +10726,13 @@
         <v>978</v>
       </c>
       <c r="C401" t="s">
-        <v>1440</v>
+        <v>1552</v>
       </c>
       <c r="D401" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>404</v>
       </c>
@@ -10685,13 +10740,13 @@
         <v>979</v>
       </c>
       <c r="C402" t="s">
-        <v>1385</v>
+        <v>1370</v>
       </c>
       <c r="D402" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>405</v>
       </c>
@@ -10699,13 +10754,13 @@
         <v>980</v>
       </c>
       <c r="C403" t="s">
-        <v>1441</v>
+        <v>1425</v>
       </c>
       <c r="D403" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>406</v>
       </c>
@@ -10713,13 +10768,13 @@
         <v>981</v>
       </c>
       <c r="C404" t="s">
-        <v>1442</v>
+        <v>1426</v>
       </c>
       <c r="D404" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>407</v>
       </c>
@@ -10727,13 +10782,13 @@
         <v>982</v>
       </c>
       <c r="C405" t="s">
-        <v>1443</v>
+        <v>1427</v>
       </c>
       <c r="D405" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>408</v>
       </c>
@@ -10741,13 +10796,13 @@
         <v>983</v>
       </c>
       <c r="C406" t="s">
-        <v>1444</v>
+        <v>1428</v>
       </c>
       <c r="D406" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>409</v>
       </c>
@@ -10755,13 +10810,13 @@
         <v>984</v>
       </c>
       <c r="C407" t="s">
-        <v>1445</v>
+        <v>1429</v>
       </c>
       <c r="D407" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>410</v>
       </c>
@@ -10769,13 +10824,13 @@
         <v>985</v>
       </c>
       <c r="C408" t="s">
-        <v>1446</v>
+        <v>1430</v>
       </c>
       <c r="D408" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>411</v>
       </c>
@@ -10783,13 +10838,13 @@
         <v>986</v>
       </c>
       <c r="C409" t="s">
-        <v>1430</v>
+        <v>1415</v>
       </c>
       <c r="D409" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>412</v>
       </c>
@@ -10797,13 +10852,13 @@
         <v>987</v>
       </c>
       <c r="C410" t="s">
-        <v>1447</v>
+        <v>1431</v>
       </c>
       <c r="D410" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>413</v>
       </c>
@@ -10811,13 +10866,13 @@
         <v>988</v>
       </c>
       <c r="C411" t="s">
-        <v>1448</v>
+        <v>1432</v>
       </c>
       <c r="D411" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>414</v>
       </c>
@@ -10825,13 +10880,13 @@
         <v>989</v>
       </c>
       <c r="C412" t="s">
-        <v>1330</v>
+        <v>1316</v>
       </c>
       <c r="D412" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>415</v>
       </c>
@@ -10839,13 +10894,13 @@
         <v>990</v>
       </c>
       <c r="C413" t="s">
-        <v>1449</v>
+        <v>1433</v>
       </c>
       <c r="D413" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>416</v>
       </c>
@@ -10853,13 +10908,13 @@
         <v>991</v>
       </c>
       <c r="C414" t="s">
-        <v>1403</v>
+        <v>1553</v>
       </c>
       <c r="D414" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>417</v>
       </c>
@@ -10873,7 +10928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>418</v>
       </c>
@@ -10881,13 +10936,13 @@
         <v>993</v>
       </c>
       <c r="C416" t="s">
-        <v>1450</v>
+        <v>1434</v>
       </c>
       <c r="D416" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>419</v>
       </c>
@@ -10895,13 +10950,13 @@
         <v>994</v>
       </c>
       <c r="C417" t="s">
-        <v>1451</v>
+        <v>1435</v>
       </c>
       <c r="D417" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>420</v>
       </c>
@@ -10909,13 +10964,13 @@
         <v>995</v>
       </c>
       <c r="C418" t="s">
-        <v>1452</v>
+        <v>1436</v>
       </c>
       <c r="D418" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>421</v>
       </c>
@@ -10923,13 +10978,13 @@
         <v>996</v>
       </c>
       <c r="C419" t="s">
-        <v>1453</v>
+        <v>1437</v>
       </c>
       <c r="D419" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>422</v>
       </c>
@@ -10943,7 +10998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>423</v>
       </c>
@@ -10951,13 +11006,13 @@
         <v>998</v>
       </c>
       <c r="C421" t="s">
-        <v>1454</v>
+        <v>1438</v>
       </c>
       <c r="D421" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>424</v>
       </c>
@@ -10965,13 +11020,13 @@
         <v>999</v>
       </c>
       <c r="C422" t="s">
-        <v>1455</v>
+        <v>1439</v>
       </c>
       <c r="D422" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>425</v>
       </c>
@@ -10979,13 +11034,13 @@
         <v>1000</v>
       </c>
       <c r="C423" t="s">
-        <v>1456</v>
+        <v>1440</v>
       </c>
       <c r="D423" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>426</v>
       </c>
@@ -10993,13 +11048,13 @@
         <v>1001</v>
       </c>
       <c r="C424" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="D424" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>427</v>
       </c>
@@ -11007,13 +11062,13 @@
         <v>1002</v>
       </c>
       <c r="C425" t="s">
-        <v>1458</v>
+        <v>1442</v>
       </c>
       <c r="D425" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>428</v>
       </c>
@@ -11021,13 +11076,13 @@
         <v>1003</v>
       </c>
       <c r="C426" t="s">
-        <v>1330</v>
+        <v>1316</v>
       </c>
       <c r="D426" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>429</v>
       </c>
@@ -11035,13 +11090,13 @@
         <v>1004</v>
       </c>
       <c r="C427" t="s">
-        <v>1459</v>
+        <v>1443</v>
       </c>
       <c r="D427" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>430</v>
       </c>
@@ -11055,7 +11110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>431</v>
       </c>
@@ -11063,13 +11118,13 @@
         <v>1006</v>
       </c>
       <c r="C429" t="s">
-        <v>1460</v>
+        <v>1444</v>
       </c>
       <c r="D429" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>432</v>
       </c>
@@ -11077,13 +11132,13 @@
         <v>1007</v>
       </c>
       <c r="C430" t="s">
-        <v>1461</v>
+        <v>1445</v>
       </c>
       <c r="D430" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>433</v>
       </c>
@@ -11091,13 +11146,13 @@
         <v>1008</v>
       </c>
       <c r="C431" t="s">
-        <v>1462</v>
+        <v>1446</v>
       </c>
       <c r="D431" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>434</v>
       </c>
@@ -11105,13 +11160,13 @@
         <v>1009</v>
       </c>
       <c r="C432" t="s">
-        <v>1463</v>
+        <v>1447</v>
       </c>
       <c r="D432" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>435</v>
       </c>
@@ -11119,13 +11174,13 @@
         <v>1010</v>
       </c>
       <c r="C433" t="s">
-        <v>1464</v>
+        <v>1448</v>
       </c>
       <c r="D433" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>436</v>
       </c>
@@ -11133,13 +11188,13 @@
         <v>1011</v>
       </c>
       <c r="C434" t="s">
-        <v>1465</v>
+        <v>1449</v>
       </c>
       <c r="D434" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>437</v>
       </c>
@@ -11147,13 +11202,13 @@
         <v>1012</v>
       </c>
       <c r="C435" t="s">
-        <v>1466</v>
+        <v>1450</v>
       </c>
       <c r="D435" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>438</v>
       </c>
@@ -11161,13 +11216,13 @@
         <v>1013</v>
       </c>
       <c r="C436" t="s">
-        <v>1467</v>
+        <v>1451</v>
       </c>
       <c r="D436" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>439</v>
       </c>
@@ -11175,13 +11230,13 @@
         <v>1014</v>
       </c>
       <c r="C437" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="D437" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>440</v>
       </c>
@@ -11189,13 +11244,13 @@
         <v>1015</v>
       </c>
       <c r="C438" t="s">
-        <v>1468</v>
+        <v>1554</v>
       </c>
       <c r="D438" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>441</v>
       </c>
@@ -11203,13 +11258,13 @@
         <v>1016</v>
       </c>
       <c r="C439" t="s">
-        <v>1469</v>
+        <v>1555</v>
       </c>
       <c r="D439" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>442</v>
       </c>
@@ -11223,7 +11278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>443</v>
       </c>
@@ -11231,13 +11286,13 @@
         <v>1018</v>
       </c>
       <c r="C441" t="s">
-        <v>1470</v>
+        <v>1452</v>
       </c>
       <c r="D441" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>444</v>
       </c>
@@ -11245,13 +11300,13 @@
         <v>1019</v>
       </c>
       <c r="C442" t="s">
-        <v>1471</v>
+        <v>1556</v>
       </c>
       <c r="D442" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>445</v>
       </c>
@@ -11259,13 +11314,13 @@
         <v>1020</v>
       </c>
       <c r="C443" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="D443" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>446</v>
       </c>
@@ -11273,13 +11328,13 @@
         <v>1021</v>
       </c>
       <c r="C444" t="s">
-        <v>1154</v>
+        <v>1557</v>
       </c>
       <c r="D444" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>447</v>
       </c>
@@ -11287,13 +11342,13 @@
         <v>1022</v>
       </c>
       <c r="C445" t="s">
-        <v>1455</v>
+        <v>1439</v>
       </c>
       <c r="D445" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>448</v>
       </c>
@@ -11301,13 +11356,13 @@
         <v>1023</v>
       </c>
       <c r="C446" t="s">
-        <v>1472</v>
+        <v>1453</v>
       </c>
       <c r="D446" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>449</v>
       </c>
@@ -11321,7 +11376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>450</v>
       </c>
@@ -11329,13 +11384,13 @@
         <v>1025</v>
       </c>
       <c r="C448" t="s">
-        <v>1473</v>
+        <v>1454</v>
       </c>
       <c r="D448" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>451</v>
       </c>
@@ -11343,13 +11398,13 @@
         <v>1026</v>
       </c>
       <c r="C449" t="s">
-        <v>1440</v>
+        <v>1558</v>
       </c>
       <c r="D449" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>452</v>
       </c>
@@ -11357,13 +11412,13 @@
         <v>1027</v>
       </c>
       <c r="C450" t="s">
-        <v>1474</v>
+        <v>1455</v>
       </c>
       <c r="D450" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>453</v>
       </c>
@@ -11371,13 +11426,13 @@
         <v>1028</v>
       </c>
       <c r="C451" t="s">
-        <v>1475</v>
+        <v>1456</v>
       </c>
       <c r="D451" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>454</v>
       </c>
@@ -11385,13 +11440,13 @@
         <v>1029</v>
       </c>
       <c r="C452" t="s">
-        <v>1476</v>
+        <v>1457</v>
       </c>
       <c r="D452" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>455</v>
       </c>
@@ -11399,13 +11454,13 @@
         <v>1030</v>
       </c>
       <c r="C453" t="s">
-        <v>1209</v>
+        <v>1559</v>
       </c>
       <c r="D453" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>456</v>
       </c>
@@ -11413,13 +11468,13 @@
         <v>1031</v>
       </c>
       <c r="C454" t="s">
-        <v>1477</v>
+        <v>1458</v>
       </c>
       <c r="D454" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>457</v>
       </c>
@@ -11433,7 +11488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>458</v>
       </c>
@@ -11441,13 +11496,13 @@
         <v>1033</v>
       </c>
       <c r="C456" t="s">
-        <v>1478</v>
+        <v>1459</v>
       </c>
       <c r="D456" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>459</v>
       </c>
@@ -11455,13 +11510,13 @@
         <v>1034</v>
       </c>
       <c r="C457" t="s">
-        <v>1479</v>
+        <v>1460</v>
       </c>
       <c r="D457" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>460</v>
       </c>
@@ -11469,13 +11524,13 @@
         <v>1035</v>
       </c>
       <c r="C458" t="s">
-        <v>1480</v>
+        <v>1461</v>
       </c>
       <c r="D458" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>461</v>
       </c>
@@ -11489,7 +11544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>462</v>
       </c>
@@ -11497,13 +11552,13 @@
         <v>1037</v>
       </c>
       <c r="C460" t="s">
-        <v>1481</v>
+        <v>1462</v>
       </c>
       <c r="D460" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>463</v>
       </c>
@@ -11511,13 +11566,13 @@
         <v>1038</v>
       </c>
       <c r="C461" t="s">
-        <v>1482</v>
+        <v>1463</v>
       </c>
       <c r="D461" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>464</v>
       </c>
@@ -11525,13 +11580,13 @@
         <v>1039</v>
       </c>
       <c r="C462" t="s">
-        <v>1444</v>
+        <v>1428</v>
       </c>
       <c r="D462" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>465</v>
       </c>
@@ -11539,13 +11594,13 @@
         <v>1040</v>
       </c>
       <c r="C463" t="s">
-        <v>1340</v>
+        <v>1326</v>
       </c>
       <c r="D463" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>466</v>
       </c>
@@ -11553,13 +11608,13 @@
         <v>1041</v>
       </c>
       <c r="C464" t="s">
-        <v>1412</v>
+        <v>1397</v>
       </c>
       <c r="D464" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>467</v>
       </c>
@@ -11567,13 +11622,13 @@
         <v>1042</v>
       </c>
       <c r="C465" t="s">
-        <v>1483</v>
+        <v>1464</v>
       </c>
       <c r="D465" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>468</v>
       </c>
@@ -11581,13 +11636,13 @@
         <v>1043</v>
       </c>
       <c r="C466" t="s">
-        <v>1484</v>
+        <v>1465</v>
       </c>
       <c r="D466" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>469</v>
       </c>
@@ -11595,13 +11650,13 @@
         <v>1044</v>
       </c>
       <c r="C467" t="s">
-        <v>1485</v>
+        <v>1466</v>
       </c>
       <c r="D467" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>470</v>
       </c>
@@ -11609,13 +11664,13 @@
         <v>1045</v>
       </c>
       <c r="C468" t="s">
-        <v>1366</v>
+        <v>1351</v>
       </c>
       <c r="D468" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>471</v>
       </c>
@@ -11623,13 +11678,13 @@
         <v>1046</v>
       </c>
       <c r="C469" t="s">
-        <v>1486</v>
+        <v>1467</v>
       </c>
       <c r="D469" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>472</v>
       </c>
@@ -11637,13 +11692,13 @@
         <v>1047</v>
       </c>
       <c r="C470" t="s">
-        <v>1487</v>
+        <v>1468</v>
       </c>
       <c r="D470" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>473</v>
       </c>
@@ -11651,13 +11706,13 @@
         <v>1048</v>
       </c>
       <c r="C471" t="s">
-        <v>1289</v>
+        <v>1566</v>
       </c>
       <c r="D471" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>474</v>
       </c>
@@ -11665,13 +11720,13 @@
         <v>1049</v>
       </c>
       <c r="C472" t="s">
-        <v>1488</v>
+        <v>1469</v>
       </c>
       <c r="D472" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>475</v>
       </c>
@@ -11679,13 +11734,13 @@
         <v>1050</v>
       </c>
       <c r="C473" t="s">
-        <v>1489</v>
+        <v>1470</v>
       </c>
       <c r="D473" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>476</v>
       </c>
@@ -11693,13 +11748,13 @@
         <v>1051</v>
       </c>
       <c r="C474" t="s">
-        <v>1490</v>
+        <v>1471</v>
       </c>
       <c r="D474" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>477</v>
       </c>
@@ -11707,13 +11762,13 @@
         <v>1052</v>
       </c>
       <c r="C475" t="s">
-        <v>1491</v>
+        <v>1472</v>
       </c>
       <c r="D475" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>478</v>
       </c>
@@ -11721,13 +11776,13 @@
         <v>1053</v>
       </c>
       <c r="C476" t="s">
-        <v>1492</v>
+        <v>1473</v>
       </c>
       <c r="D476" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>479</v>
       </c>
@@ -11735,13 +11790,13 @@
         <v>1054</v>
       </c>
       <c r="C477" t="s">
-        <v>1412</v>
+        <v>1397</v>
       </c>
       <c r="D477" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>480</v>
       </c>
@@ -11749,13 +11804,13 @@
         <v>1055</v>
       </c>
       <c r="C478" t="s">
-        <v>1493</v>
+        <v>1474</v>
       </c>
       <c r="D478" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>481</v>
       </c>
@@ -11766,10 +11821,10 @@
         <v>1056</v>
       </c>
       <c r="D479" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>482</v>
       </c>
@@ -11777,13 +11832,13 @@
         <v>1057</v>
       </c>
       <c r="C480" t="s">
-        <v>1494</v>
+        <v>1475</v>
       </c>
       <c r="D480" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>483</v>
       </c>
@@ -11794,10 +11849,10 @@
         <v>1058</v>
       </c>
       <c r="D481" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>484</v>
       </c>
@@ -11805,13 +11860,13 @@
         <v>1059</v>
       </c>
       <c r="C482" t="s">
-        <v>1339</v>
+        <v>1325</v>
       </c>
       <c r="D482" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="483" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>485</v>
       </c>
@@ -11819,13 +11874,13 @@
         <v>1060</v>
       </c>
       <c r="C483" t="s">
-        <v>1495</v>
+        <v>1476</v>
       </c>
       <c r="D483" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>486</v>
       </c>
@@ -11833,13 +11888,13 @@
         <v>1061</v>
       </c>
       <c r="C484" t="s">
-        <v>1496</v>
+        <v>1477</v>
       </c>
       <c r="D484" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>487</v>
       </c>
@@ -11847,13 +11902,13 @@
         <v>1062</v>
       </c>
       <c r="C485" t="s">
-        <v>1497</v>
+        <v>1478</v>
       </c>
       <c r="D485" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="486" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>488</v>
       </c>
@@ -11861,13 +11916,13 @@
         <v>1063</v>
       </c>
       <c r="C486" t="s">
-        <v>1498</v>
+        <v>1479</v>
       </c>
       <c r="D486" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>489</v>
       </c>
@@ -11875,13 +11930,13 @@
         <v>1064</v>
       </c>
       <c r="C487" t="s">
-        <v>1499</v>
+        <v>1480</v>
       </c>
       <c r="D487" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>490</v>
       </c>
@@ -11889,13 +11944,13 @@
         <v>1065</v>
       </c>
       <c r="C488" t="s">
-        <v>1455</v>
+        <v>1439</v>
       </c>
       <c r="D488" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>491</v>
       </c>
@@ -11903,13 +11958,13 @@
         <v>1066</v>
       </c>
       <c r="C489" t="s">
-        <v>1500</v>
+        <v>1481</v>
       </c>
       <c r="D489" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>492</v>
       </c>
@@ -11917,13 +11972,13 @@
         <v>1067</v>
       </c>
       <c r="C490" t="s">
-        <v>1332</v>
+        <v>1318</v>
       </c>
       <c r="D490" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>493</v>
       </c>
@@ -11931,13 +11986,13 @@
         <v>1068</v>
       </c>
       <c r="C491" t="s">
-        <v>1501</v>
+        <v>1482</v>
       </c>
       <c r="D491" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>494</v>
       </c>
@@ -11945,13 +12000,13 @@
         <v>1069</v>
       </c>
       <c r="C492" t="s">
-        <v>1502</v>
+        <v>1483</v>
       </c>
       <c r="D492" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>495</v>
       </c>
@@ -11959,13 +12014,13 @@
         <v>1070</v>
       </c>
       <c r="C493" t="s">
-        <v>1503</v>
+        <v>1484</v>
       </c>
       <c r="D493" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="494" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>496</v>
       </c>
@@ -11973,13 +12028,13 @@
         <v>1071</v>
       </c>
       <c r="C494" t="s">
-        <v>1504</v>
+        <v>1485</v>
       </c>
       <c r="D494" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="495" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>497</v>
       </c>
@@ -11987,13 +12042,13 @@
         <v>1072</v>
       </c>
       <c r="C495" t="s">
-        <v>1505</v>
+        <v>1560</v>
       </c>
       <c r="D495" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>498</v>
       </c>
@@ -12001,13 +12056,13 @@
         <v>1073</v>
       </c>
       <c r="C496" t="s">
-        <v>1366</v>
+        <v>1351</v>
       </c>
       <c r="D496" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="497" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>499</v>
       </c>
@@ -12015,13 +12070,13 @@
         <v>1074</v>
       </c>
       <c r="C497" t="s">
-        <v>1387</v>
+        <v>1372</v>
       </c>
       <c r="D497" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="498" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>500</v>
       </c>
@@ -12029,13 +12084,13 @@
         <v>1075</v>
       </c>
       <c r="C498" t="s">
-        <v>1506</v>
+        <v>1486</v>
       </c>
       <c r="D498" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="499" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>501</v>
       </c>
@@ -12043,13 +12098,13 @@
         <v>1076</v>
       </c>
       <c r="C499" t="s">
-        <v>1373</v>
+        <v>1358</v>
       </c>
       <c r="D499" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="500" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>502</v>
       </c>
@@ -12057,13 +12112,13 @@
         <v>1077</v>
       </c>
       <c r="C500" t="s">
-        <v>1507</v>
+        <v>1487</v>
       </c>
       <c r="D500" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="501" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>503</v>
       </c>
@@ -12071,13 +12126,13 @@
         <v>1078</v>
       </c>
       <c r="C501" t="s">
-        <v>1508</v>
+        <v>1488</v>
       </c>
       <c r="D501" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="502" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>504</v>
       </c>
@@ -12085,13 +12140,13 @@
         <v>1079</v>
       </c>
       <c r="C502" t="s">
-        <v>1509</v>
+        <v>1489</v>
       </c>
       <c r="D502" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="503" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>505</v>
       </c>
@@ -12099,13 +12154,13 @@
         <v>1080</v>
       </c>
       <c r="C503" t="s">
-        <v>1510</v>
+        <v>1561</v>
       </c>
       <c r="D503" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="504" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>506</v>
       </c>
@@ -12113,13 +12168,13 @@
         <v>1081</v>
       </c>
       <c r="C504" t="s">
-        <v>1289</v>
+        <v>1562</v>
       </c>
       <c r="D504" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="505" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>507</v>
       </c>
@@ -12127,13 +12182,13 @@
         <v>1082</v>
       </c>
       <c r="C505" t="s">
-        <v>1330</v>
+        <v>1316</v>
       </c>
       <c r="D505" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="506" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>508</v>
       </c>
@@ -12141,13 +12196,13 @@
         <v>1083</v>
       </c>
       <c r="C506" t="s">
-        <v>1511</v>
+        <v>1490</v>
       </c>
       <c r="D506" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="507" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>509</v>
       </c>
@@ -12155,13 +12210,13 @@
         <v>1084</v>
       </c>
       <c r="C507" t="s">
-        <v>1512</v>
+        <v>1491</v>
       </c>
       <c r="D507" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="508" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>510</v>
       </c>
@@ -12169,13 +12224,13 @@
         <v>1085</v>
       </c>
       <c r="C508" t="s">
-        <v>1513</v>
+        <v>1492</v>
       </c>
       <c r="D508" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="509" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>511</v>
       </c>
@@ -12183,13 +12238,13 @@
         <v>1086</v>
       </c>
       <c r="C509" t="s">
-        <v>1514</v>
+        <v>1493</v>
       </c>
       <c r="D509" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="510" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>512</v>
       </c>
@@ -12197,13 +12252,13 @@
         <v>1087</v>
       </c>
       <c r="C510" t="s">
-        <v>1515</v>
+        <v>1494</v>
       </c>
       <c r="D510" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="511" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>513</v>
       </c>
@@ -12211,13 +12266,13 @@
         <v>1088</v>
       </c>
       <c r="C511" t="s">
-        <v>1516</v>
+        <v>1495</v>
       </c>
       <c r="D511" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="512" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>514</v>
       </c>
@@ -12225,13 +12280,13 @@
         <v>1089</v>
       </c>
       <c r="C512" t="s">
-        <v>1517</v>
+        <v>1496</v>
       </c>
       <c r="D512" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="513" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>515</v>
       </c>
@@ -12239,13 +12294,13 @@
         <v>1090</v>
       </c>
       <c r="C513" t="s">
-        <v>1518</v>
+        <v>1497</v>
       </c>
       <c r="D513" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="514" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>516</v>
       </c>
@@ -12253,13 +12308,13 @@
         <v>1091</v>
       </c>
       <c r="C514" t="s">
-        <v>1519</v>
+        <v>1498</v>
       </c>
       <c r="D514" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="515" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>517</v>
       </c>
@@ -12267,13 +12322,13 @@
         <v>1092</v>
       </c>
       <c r="C515" t="s">
-        <v>1520</v>
+        <v>1499</v>
       </c>
       <c r="D515" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="516" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>518</v>
       </c>
@@ -12284,10 +12339,10 @@
         <v>1093</v>
       </c>
       <c r="D516" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="517" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>519</v>
       </c>
@@ -12295,13 +12350,13 @@
         <v>1094</v>
       </c>
       <c r="C517" t="s">
-        <v>1183</v>
+        <v>1563</v>
       </c>
       <c r="D517" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="518" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>520</v>
       </c>
@@ -12309,13 +12364,13 @@
         <v>1095</v>
       </c>
       <c r="C518" t="s">
-        <v>1521</v>
+        <v>1500</v>
       </c>
       <c r="D518" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="519" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>521</v>
       </c>
@@ -12323,13 +12378,13 @@
         <v>1096</v>
       </c>
       <c r="C519" t="s">
-        <v>1522</v>
+        <v>1501</v>
       </c>
       <c r="D519" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="520" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>522</v>
       </c>
@@ -12337,13 +12392,13 @@
         <v>1097</v>
       </c>
       <c r="C520" t="s">
-        <v>1523</v>
+        <v>1502</v>
       </c>
       <c r="D520" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="521" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>523</v>
       </c>
@@ -12351,13 +12406,13 @@
         <v>1098</v>
       </c>
       <c r="C521" t="s">
-        <v>1524</v>
+        <v>1503</v>
       </c>
       <c r="D521" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="522" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>524</v>
       </c>
@@ -12365,13 +12420,13 @@
         <v>1099</v>
       </c>
       <c r="C522" t="s">
-        <v>1321</v>
+        <v>1308</v>
       </c>
       <c r="D522" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="523" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>525</v>
       </c>
@@ -12379,13 +12434,13 @@
         <v>1100</v>
       </c>
       <c r="C523" t="s">
-        <v>1525</v>
+        <v>1504</v>
       </c>
       <c r="D523" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="524" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>526</v>
       </c>
@@ -12393,13 +12448,13 @@
         <v>1101</v>
       </c>
       <c r="C524" t="s">
-        <v>1526</v>
+        <v>1505</v>
       </c>
       <c r="D524" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="525" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>527</v>
       </c>
@@ -12407,13 +12462,13 @@
         <v>1102</v>
       </c>
       <c r="C525" t="s">
-        <v>1527</v>
+        <v>1506</v>
       </c>
       <c r="D525" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="526" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>528</v>
       </c>
@@ -12424,10 +12479,10 @@
         <v>1103</v>
       </c>
       <c r="D526" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="527" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>529</v>
       </c>
@@ -12435,13 +12490,13 @@
         <v>1104</v>
       </c>
       <c r="C527" t="s">
-        <v>1528</v>
+        <v>1507</v>
       </c>
       <c r="D527" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="528" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>530</v>
       </c>
@@ -12449,13 +12504,13 @@
         <v>1105</v>
       </c>
       <c r="C528" t="s">
-        <v>1529</v>
+        <v>1508</v>
       </c>
       <c r="D528" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="529" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>531</v>
       </c>
@@ -12463,13 +12518,13 @@
         <v>1106</v>
       </c>
       <c r="C529" t="s">
-        <v>1530</v>
+        <v>1509</v>
       </c>
       <c r="D529" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="530" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>532</v>
       </c>
@@ -12477,13 +12532,13 @@
         <v>1107</v>
       </c>
       <c r="C530" t="s">
-        <v>1531</v>
+        <v>1564</v>
       </c>
       <c r="D530" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="531" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>533</v>
       </c>
@@ -12491,13 +12546,13 @@
         <v>1108</v>
       </c>
       <c r="C531" t="s">
-        <v>1532</v>
+        <v>1510</v>
       </c>
       <c r="D531" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="532" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>534</v>
       </c>
@@ -12505,13 +12560,13 @@
         <v>1109</v>
       </c>
       <c r="C532" t="s">
-        <v>1533</v>
+        <v>1511</v>
       </c>
       <c r="D532" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="533" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>535</v>
       </c>
@@ -12522,10 +12577,10 @@
         <v>1110</v>
       </c>
       <c r="D533" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="534" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>536</v>
       </c>
@@ -12533,13 +12588,13 @@
         <v>1111</v>
       </c>
       <c r="C534" t="s">
-        <v>1534</v>
+        <v>1512</v>
       </c>
       <c r="D534" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="535" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>537</v>
       </c>
@@ -12547,13 +12602,13 @@
         <v>1112</v>
       </c>
       <c r="C535" t="s">
-        <v>1291</v>
+        <v>1279</v>
       </c>
       <c r="D535" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="536" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>538</v>
       </c>
@@ -12561,13 +12616,13 @@
         <v>1113</v>
       </c>
       <c r="C536" t="s">
-        <v>1535</v>
+        <v>1513</v>
       </c>
       <c r="D536" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="537" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>539</v>
       </c>
@@ -12575,13 +12630,13 @@
         <v>1114</v>
       </c>
       <c r="C537" t="s">
-        <v>1536</v>
+        <v>1514</v>
       </c>
       <c r="D537" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="538" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>540</v>
       </c>
@@ -12589,13 +12644,13 @@
         <v>1115</v>
       </c>
       <c r="C538" t="s">
-        <v>1537</v>
+        <v>1515</v>
       </c>
       <c r="D538" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="539" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>541</v>
       </c>
@@ -12603,13 +12658,13 @@
         <v>1116</v>
       </c>
       <c r="C539" t="s">
-        <v>1538</v>
+        <v>1516</v>
       </c>
       <c r="D539" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="540" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>542</v>
       </c>
@@ -12617,13 +12672,13 @@
         <v>1117</v>
       </c>
       <c r="C540" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D540" t="s">
         <v>1539</v>
       </c>
-      <c r="D540" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="541" spans="1:4">
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>543</v>
       </c>
@@ -12631,13 +12686,13 @@
         <v>1118</v>
       </c>
       <c r="C541" t="s">
-        <v>1540</v>
+        <v>1518</v>
       </c>
       <c r="D541" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="542" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>544</v>
       </c>
@@ -12645,13 +12700,13 @@
         <v>1119</v>
       </c>
       <c r="C542" t="s">
-        <v>1541</v>
+        <v>1519</v>
       </c>
       <c r="D542" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="543" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>545</v>
       </c>
@@ -12659,13 +12714,13 @@
         <v>1120</v>
       </c>
       <c r="C543" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="D543" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="544" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>546</v>
       </c>
@@ -12676,10 +12731,10 @@
         <v>1121</v>
       </c>
       <c r="D544" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="545" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>547</v>
       </c>
@@ -12687,13 +12742,13 @@
         <v>1122</v>
       </c>
       <c r="C545" t="s">
-        <v>1542</v>
+        <v>1520</v>
       </c>
       <c r="D545" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="546" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>548</v>
       </c>
@@ -12701,13 +12756,13 @@
         <v>1123</v>
       </c>
       <c r="C546" t="s">
-        <v>1543</v>
+        <v>1521</v>
       </c>
       <c r="D546" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="547" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>549</v>
       </c>
@@ -12715,13 +12770,13 @@
         <v>1124</v>
       </c>
       <c r="C547" t="s">
-        <v>1424</v>
+        <v>1409</v>
       </c>
       <c r="D547" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="548" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>550</v>
       </c>
@@ -12729,13 +12784,13 @@
         <v>1125</v>
       </c>
       <c r="C548" t="s">
-        <v>1544</v>
+        <v>1522</v>
       </c>
       <c r="D548" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="549" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>551</v>
       </c>
@@ -12743,13 +12798,13 @@
         <v>1126</v>
       </c>
       <c r="C549" t="s">
-        <v>1545</v>
+        <v>1523</v>
       </c>
       <c r="D549" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="550" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>552</v>
       </c>
@@ -12757,13 +12812,13 @@
         <v>1127</v>
       </c>
       <c r="C550" t="s">
-        <v>1546</v>
+        <v>1567</v>
       </c>
       <c r="D550" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="551" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>553</v>
       </c>
@@ -12771,13 +12826,13 @@
         <v>1128</v>
       </c>
       <c r="C551" t="s">
-        <v>1493</v>
+        <v>1474</v>
       </c>
       <c r="D551" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="552" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>554</v>
       </c>
@@ -12788,10 +12843,10 @@
         <v>1129</v>
       </c>
       <c r="D552" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="553" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>555</v>
       </c>
@@ -12799,13 +12854,13 @@
         <v>1130</v>
       </c>
       <c r="C553" t="s">
-        <v>1547</v>
+        <v>1525</v>
       </c>
       <c r="D553" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="554" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>556</v>
       </c>
@@ -12813,13 +12868,13 @@
         <v>1131</v>
       </c>
       <c r="C554" t="s">
-        <v>1548</v>
+        <v>1526</v>
       </c>
       <c r="D554" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="555" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>557</v>
       </c>
@@ -12827,13 +12882,13 @@
         <v>1132</v>
       </c>
       <c r="C555" t="s">
-        <v>1316</v>
+        <v>1132</v>
       </c>
       <c r="D555" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="556" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>558</v>
       </c>
@@ -12841,13 +12896,13 @@
         <v>1133</v>
       </c>
       <c r="C556" t="s">
-        <v>1549</v>
+        <v>1527</v>
       </c>
       <c r="D556" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="557" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>559</v>
       </c>
@@ -12855,13 +12910,13 @@
         <v>1134</v>
       </c>
       <c r="C557" t="s">
-        <v>1425</v>
+        <v>1410</v>
       </c>
       <c r="D557" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="558" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>560</v>
       </c>
@@ -12869,13 +12924,13 @@
         <v>1135</v>
       </c>
       <c r="C558" t="s">
-        <v>1550</v>
+        <v>1528</v>
       </c>
       <c r="D558" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="559" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>561</v>
       </c>
@@ -12883,13 +12938,13 @@
         <v>1136</v>
       </c>
       <c r="C559" t="s">
-        <v>1336</v>
+        <v>1322</v>
       </c>
       <c r="D559" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="560" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>562</v>
       </c>
@@ -12900,10 +12955,10 @@
         <v>1137</v>
       </c>
       <c r="D560" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="561" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>563</v>
       </c>
@@ -12911,13 +12966,13 @@
         <v>1138</v>
       </c>
       <c r="C561" t="s">
-        <v>1551</v>
+        <v>1529</v>
       </c>
       <c r="D561" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="562" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>564</v>
       </c>
@@ -12925,13 +12980,13 @@
         <v>1139</v>
       </c>
       <c r="C562" t="s">
-        <v>1552</v>
+        <v>1530</v>
       </c>
       <c r="D562" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="563" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>565</v>
       </c>
@@ -12939,13 +12994,13 @@
         <v>1140</v>
       </c>
       <c r="C563" t="s">
-        <v>1553</v>
+        <v>1531</v>
       </c>
       <c r="D563" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="564" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>566</v>
       </c>
@@ -12953,13 +13008,13 @@
         <v>1141</v>
       </c>
       <c r="C564" t="s">
-        <v>1554</v>
+        <v>1532</v>
       </c>
       <c r="D564" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="565" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>567</v>
       </c>
@@ -12967,13 +13022,13 @@
         <v>1142</v>
       </c>
       <c r="C565" t="s">
-        <v>1555</v>
+        <v>1533</v>
       </c>
       <c r="D565" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="566" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>568</v>
       </c>
@@ -12981,13 +13036,13 @@
         <v>1143</v>
       </c>
       <c r="C566" t="s">
-        <v>1556</v>
+        <v>1534</v>
       </c>
       <c r="D566" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="567" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>569</v>
       </c>
@@ -12995,13 +13050,13 @@
         <v>1144</v>
       </c>
       <c r="C567" t="s">
-        <v>1557</v>
+        <v>1535</v>
       </c>
       <c r="D567" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="568" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>570</v>
       </c>
@@ -13009,13 +13064,13 @@
         <v>1145</v>
       </c>
       <c r="C568" t="s">
-        <v>1558</v>
+        <v>1536</v>
       </c>
       <c r="D568" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="569" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>571</v>
       </c>
@@ -13023,13 +13078,13 @@
         <v>1146</v>
       </c>
       <c r="C569" t="s">
-        <v>1367</v>
+        <v>1352</v>
       </c>
       <c r="D569" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="570" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>572</v>
       </c>
@@ -13037,13 +13092,13 @@
         <v>1147</v>
       </c>
       <c r="C570" t="s">
-        <v>1559</v>
+        <v>1537</v>
       </c>
       <c r="D570" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="571" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>573</v>
       </c>
@@ -13051,13 +13106,13 @@
         <v>1148</v>
       </c>
       <c r="C571" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="D571" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="572" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>574</v>
       </c>
@@ -13068,10 +13123,10 @@
         <v>1149</v>
       </c>
       <c r="D572" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="573" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>575</v>
       </c>
@@ -13079,13 +13134,13 @@
         <v>1150</v>
       </c>
       <c r="C573" t="s">
-        <v>1243</v>
+        <v>1236</v>
       </c>
       <c r="D573" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="574" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>576</v>
       </c>
@@ -13093,13 +13148,13 @@
         <v>1151</v>
       </c>
       <c r="C574" t="s">
-        <v>1560</v>
+        <v>1538</v>
       </c>
       <c r="D574" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="575" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>577</v>
       </c>
@@ -13107,13 +13162,13 @@
         <v>1152</v>
       </c>
       <c r="C575" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="D575" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="576" spans="1:4">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>578</v>
       </c>
@@ -13124,7 +13179,7 @@
         <v>1153</v>
       </c>
       <c r="D576" t="s">
-        <v>1561</v>
+        <v>1539</v>
       </c>
     </row>
   </sheetData>
